--- a/olympus/M226.xlsx
+++ b/olympus/M226.xlsx
@@ -245,142 +245,142 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2022-08-28 23:00:00</t>
+          <t>2022-08-28 22:00:00</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.19639818370342255</v>
+        <v>0.1060633733868599</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.12562215328216553</v>
+        <v>0.12557056546211243</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.9417986273765564</v>
+        <v>1.765202283859253</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.9317108392715454</v>
+        <v>0.0</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.0</v>
+        <v>1.791422724723816</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>2.4837000370025635</v>
+        <v>3.911700487136841</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>40.42626190185547</v>
+        <v>40.52534103393555</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>-73.7853775024414</v>
+        <v>-74.00932312011719</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1020.7484741210938</v>
+        <v>1020.7529296875</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0.800000011920929</v>
+        <v>4.099999904632568</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>0.800000011920929</v>
+        <v>4.0</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>0.800000011920929</v>
+        <v>4.099999904632568</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>0.800000011920929</v>
+        <v>4.200000286102295</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8.53355598449707</v>
+        <v>16.850025177001953</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>26.819374084472656</v>
+        <v>27.067834854125977</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2022-08-29 01:00:00</t>
+          <t>2022-08-28 23:00:00</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.18245793879032135</v>
+        <v>0.19639818370342255</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.12572534382343292</v>
+        <v>0.12562215328216553</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.824867606163025</v>
+        <v>0.9417986273765564</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.8811454772949219</v>
+        <v>0.9317108392715454</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.963700294494629</v>
+        <v>0.0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0</v>
+        <v>2.4837000370025635</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>40.37120819091797</v>
+        <v>40.42626190185547</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>-73.25716400146484</v>
+        <v>-73.7853775024414</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1020.739501953125</v>
+        <v>1020.7484741210938</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.4000000953674316</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.5</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3.4000000953674316</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.4000000953674316</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>16.650375366210938</v>
+        <v>8.53355598449707</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>26.792306900024414</v>
+        <v>26.819374084472656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2022-08-29 03:00:00</t>
+          <t>2022-08-29 00:00:00</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.17910972237586975</v>
+        <v>0.17229706048965454</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.12582851946353912</v>
+        <v>0.12567375600337982</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.917033076286316</v>
+        <v>1.3809877634048462</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.94976806640625</v>
+        <v>1.3497979640960693</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.0</v>
+        <v>1.4157545566558838</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>0.0</v>
@@ -389,13 +389,13 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>40.37466812133789</v>
+        <v>40.41081619262695</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>-72.61896514892578</v>
+        <v>-73.5658187866211</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1020.7305908203125</v>
+        <v>1020.7440185546875</v>
       </c>
       <c r="M5" s="2" t="n">
         <v>1.600000023841858</v>
@@ -410,90 +410,90 @@
         <v>1.7000000476837158</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>12.899999618530273</v>
+        <v>12.800000190734863</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>27.06302833557129</v>
+        <v>26.636486053466797</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2022-08-29 05:00:00</t>
+          <t>2022-08-29 01:00:00</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.03795946389436722</v>
+        <v>0.18245793879032135</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.12593169510364532</v>
+        <v>0.12572534382343292</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.609992742538452</v>
+        <v>1.824867606163025</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.5313162803649902</v>
+        <v>1.8811454772949219</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.923424482345581</v>
+        <v>0.0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.0</v>
+        <v>1.963700294494629</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>4.574700355529785</v>
+        <v>0.0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>40.38932418823242</v>
+        <v>40.37120819091797</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>-71.84699249267578</v>
+        <v>-73.25716400146484</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1020.7216186523438</v>
+        <v>1020.739501953125</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>7.200000286102295</v>
+        <v>3.4000000953674316</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.300000190734863</v>
+        <v>3.5</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>7.0</v>
+        <v>3.4000000953674316</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.099999904632568</v>
+        <v>3.4000000953674316</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>21.833154678344727</v>
+        <v>16.650375366210938</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>28.19402313232422</v>
+        <v>26.792306900024414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2022-08-29 07:00:00</t>
+          <t>2022-08-29 02:00:00</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.0899803563952446</v>
+        <v>0.17861133813858032</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.12603487074375153</v>
+        <v>0.12577693164348602</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2.148073673248291</v>
+        <v>2.003819465637207</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.2094907760620117</v>
+        <v>2.021212339401245</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.30729341506958</v>
+        <v>0.0</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>0.0</v>
@@ -502,56 +502,56 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>4.651307106018066</v>
+        <v>0.0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>40.40409851074219</v>
+        <v>40.36945724487305</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>-70.89096069335938</v>
+        <v>-72.9122085571289</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1020.7127075195312</v>
+        <v>1020.7350463867188</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>9.0</v>
+        <v>1.600000023841858</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>1.7000000476837158</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>1.600000023841858</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>1.7000000476837158</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>23.666833877563477</v>
+        <v>13.099800109863281</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>27.33888053894043</v>
+        <v>26.948129653930664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2022-08-29 09:00:00</t>
+          <t>2022-08-29 03:00:00</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.14200125634670258</v>
+        <v>0.17910972237586975</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.12613804638385773</v>
+        <v>0.12582851946353912</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.119885206222534</v>
+        <v>1.917033076286316</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.194641590118408</v>
+        <v>1.94976806640625</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.281104564666748</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0.0</v>
@@ -560,523 +560,523 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>4.635900497436523</v>
+        <v>0.0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>40.42233657836914</v>
+        <v>40.37466812133789</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>-69.90571594238281</v>
+        <v>-72.61896514892578</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1020.7037353515625</v>
+        <v>1020.7305908203125</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>9.0</v>
+        <v>1.600000023841858</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>1.7000000476837158</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>1.7000000476837158</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>1.7000000476837158</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>23.324901580810547</v>
+        <v>12.899999618530273</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>26.341856002807617</v>
+        <v>27.06302833557129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2022-08-29 11:00:00</t>
+          <t>2022-08-29 04:00:00</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.19402214884757996</v>
+        <v>0.01194901391863823</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.12624122202396393</v>
+        <v>0.12588010728359222</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.046583414077759</v>
+        <v>2.1871964931488037</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2.159062623977661</v>
+        <v>2.2471373081207275</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.2432096004486084</v>
+        <v>0.0</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.6793534159660339</v>
+        <v>0.0</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>4.426800727844238</v>
+        <v>4.666500091552734</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>40.43037033081055</v>
+        <v>40.37913513183594</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>-68.9485855102539</v>
+        <v>-72.2979965209961</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1020.8247680664062</v>
+        <v>1020.7261352539062</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>6.5</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>23.74982452392578</v>
+        <v>19.749950408935547</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>25.660593032836914</v>
+        <v>27.751543045043945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2022-08-29 13:00:00</t>
+          <t>2022-08-29 05:00:00</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.18455342948436737</v>
+        <v>0.03795946389436722</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.12634439766407013</v>
+        <v>0.12593169510364532</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.62077260017395</v>
+        <v>2.609992742538452</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2.6643588542938232</v>
+        <v>2.5313162803649902</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.602463483810425</v>
+        <v>0.923424482345581</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.7592859268188477</v>
+        <v>0.0</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.0</v>
+        <v>4.574700355529785</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>40.48810577392578</v>
+        <v>40.38932418823242</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>-68.00341796875</v>
+        <v>-71.84699249267578</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1021.0364990234375</v>
+        <v>1020.7216186523438</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.200000286102295</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>7.0</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>23.200149536132812</v>
+        <v>21.833154678344727</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>26.060842514038086</v>
+        <v>28.19402313232422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2022-08-29 15:00:00</t>
+          <t>2022-08-29 06:00:00</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.17785494029521942</v>
+        <v>0.06396991014480591</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.12644757330417633</v>
+        <v>0.12598328292369843</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2.6478378772735596</v>
+        <v>2.287003755569458</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2.688602924346924</v>
+        <v>2.2671878337860107</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.542452812194824</v>
+        <v>2.4691238403320312</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.790198802947998</v>
+        <v>0.0</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7591004371643066</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>40.568050384521484</v>
+        <v>40.39762878417969</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>-67.0333251953125</v>
+        <v>-71.3810043334961</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1021.248291015625</v>
+        <v>1020.7171630859375</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.0</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>24.0</v>
+        <v>21.766822814941406</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>26.863384246826172</v>
+        <v>27.669445037841797</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>2022-08-29 17:00:00</t>
+          <t>2022-08-29 07:00:00</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.17739544808864594</v>
+        <v>0.0899803563952446</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.12655074894428253</v>
+        <v>0.12603487074375153</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2.625999689102173</v>
+        <v>2.148073673248291</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2.6630449295043945</v>
+        <v>2.2094907760620117</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.517474889755249</v>
+        <v>2.30729341506958</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.7575793266296387</v>
+        <v>0.0</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.0</v>
+        <v>4.651307106018066</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>40.67559051513672</v>
+        <v>40.40409851074219</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>-66.04764556884766</v>
+        <v>-70.89096069335938</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1020.768798828125</v>
+        <v>1020.7127075195312</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>9.0</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>23.599597930908203</v>
+        <v>23.666833877563477</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>25.85033416748047</v>
+        <v>27.33888053894043</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>2022-08-29 19:00:00</t>
+          <t>2022-08-29 08:00:00</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.17794685065746307</v>
+        <v>0.11599081009626389</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.12665392458438873</v>
+        <v>0.12608645856380463</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>2.544126510620117</v>
+        <v>2.1508002281188965</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2.5846927165985107</v>
+        <v>2.2148549556732178</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.4242637157440186</v>
+        <v>2.3097496032714844</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.6541666984558105</v>
+        <v>0.0</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.0</v>
+        <v>4.661400318145752</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>40.78207778930664</v>
+        <v>40.40770721435547</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>-65.06708526611328</v>
+        <v>-70.3949966430664</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1020.0654907226562</v>
+        <v>1020.7081909179688</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.0</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.0</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>23.19939613342285</v>
+        <v>23.3987979888916</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>26.121700286865234</v>
+        <v>26.299999237060547</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2022-08-29 21:00:00</t>
+          <t>2022-08-29 09:00:00</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.20102611184120178</v>
+        <v>0.14200125634670258</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.12675711512565613</v>
+        <v>0.12613804638385773</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2.5627248287200928</v>
+        <v>2.119885206222534</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2.6003003120422363</v>
+        <v>2.194641590118408</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.4420578479766846</v>
+        <v>2.281104564666748</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.683899164199829</v>
+        <v>0.0</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.0</v>
+        <v>4.635900497436523</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>40.885986328125</v>
+        <v>40.42233657836914</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>-64.11133575439453</v>
+        <v>-69.90571594238281</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1019.3621826171875</v>
+        <v>1020.7037353515625</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.0</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>8.0</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>22.300199508666992</v>
+        <v>23.324901580810547</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>24.883007049560547</v>
+        <v>26.341856002807617</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>2022-08-29 23:00:00</t>
+          <t>2022-08-29 10:00:00</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.1782195270061493</v>
+        <v>0.16801171004772186</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.12686029076576233</v>
+        <v>0.12618963420391083</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2.4727866649627686</v>
+        <v>2.1472322940826416</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2.4831714630126953</v>
+        <v>2.220738649368286</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.3766911029815674</v>
+        <v>2.310276746749878</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.5901854038238525</v>
+        <v>0.0</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.0</v>
+        <v>4.646100044250488</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>40.99057388305664</v>
+        <v>40.400508880615234</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>-63.15400314331055</v>
+        <v>-69.43111419677734</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1018.6588745117188</v>
+        <v>1020.7189331054688</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>9.0</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>8.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>22.40013313293457</v>
+        <v>23.000303268432617</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>25.34898567199707</v>
+        <v>25.458391189575195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>2022-08-30 01:00:00</t>
+          <t>2022-08-29 11:00:00</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.17533469200134277</v>
+        <v>0.19402214884757996</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.12696346640586853</v>
+        <v>0.12624122202396393</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2.482726812362671</v>
+        <v>2.046583414077759</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2.4871578216552734</v>
+        <v>2.159062623977661</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.3274435997009277</v>
+        <v>2.2432096004486084</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.5588204860687256</v>
+        <v>0.6793534159660339</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0</v>
+        <v>4.426800727844238</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>41.09366989135742</v>
+        <v>40.43037033081055</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>-62.19715118408203</v>
+        <v>-68.9485855102539</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1017.9556274414062</v>
+        <v>1020.8247680664062</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>8.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>21.5</v>
+        <v>23.74982452392578</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>25.473121643066406</v>
+        <v>25.660593032836914</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>2022-08-30 03:00:00</t>
+          <t>2022-08-29 12:00:00</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.17931616306304932</v>
+        <v>0.22068940103054047</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.12706664204597473</v>
+        <v>0.12629280984401703</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2.476285457611084</v>
+        <v>2.566929578781128</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2.4934754371643066</v>
+        <v>2.657853126525879</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.3329310417175293</v>
+        <v>2.6388306617736816</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.558865547180176</v>
+        <v>2.7532317638397217</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>0.0</v>
@@ -1085,56 +1085,56 @@
         <v>0.0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>41.20222091674805</v>
+        <v>40.448753356933594</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>-61.194393157958984</v>
+        <v>-68.47968292236328</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1017.2523193359375</v>
+        <v>1020.9306640625</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>8.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>9.0</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>23.133222579956055</v>
+        <v>23.639976501464844</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>26.757579803466797</v>
+        <v>25.97189712524414</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2022-08-30 05:00:00</t>
+          <t>2022-08-29 13:00:00</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.1780652552843094</v>
+        <v>0.18455342948436737</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.12716981768608093</v>
+        <v>0.12634439766407013</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2.4683518409729004</v>
+        <v>2.62077260017395</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2.4356133937835693</v>
+        <v>2.6643588542938232</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.3119688034057617</v>
+        <v>2.602463483810425</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.5774524211883545</v>
+        <v>2.7592859268188477</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>0.0</v>
@@ -1143,56 +1143,56 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>41.314697265625</v>
+        <v>40.48810577392578</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>-60.15315628051758</v>
+        <v>-68.00341796875</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1016.5490112304688</v>
+        <v>1021.0364990234375</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>8.0</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>22.43344497680664</v>
+        <v>23.200149536132812</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>27.502073287963867</v>
+        <v>26.060842514038086</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2022-08-30 07:00:00</t>
+          <t>2022-08-29 14:00:00</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.17813915014266968</v>
+        <v>0.2084173560142517</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.12727299332618713</v>
+        <v>0.12639598548412323</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2.4386115074157715</v>
+        <v>2.6620733737945557</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2.4275102615356445</v>
+        <v>2.709876537322998</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.3231213092803955</v>
+        <v>2.578596353530884</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.564481496810913</v>
+        <v>2.7736825942993164</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>0.0</v>
@@ -1201,56 +1201,56 @@
         <v>0.0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>41.41450881958008</v>
+        <v>40.526939392089844</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>-59.22581481933594</v>
+        <v>-67.52171325683594</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1016.76220703125</v>
+        <v>1021.1423950195312</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>9.0</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>8.0</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>22.899831771850586</v>
+        <v>23.199399948120117</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>28.112403869628906</v>
+        <v>25.993776321411133</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2022-08-30 09:00:00</t>
+          <t>2022-08-29 15:00:00</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.09913702309131622</v>
+        <v>0.17785494029521942</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.12737616896629333</v>
+        <v>0.12644757330417633</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2.4740843772888184</v>
+        <v>2.6478378772735596</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.4727227687835693</v>
+        <v>2.688602924346924</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.325106143951416</v>
+        <v>2.542452812194824</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.5753326416015625</v>
+        <v>2.790198802947998</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>0.0</v>
@@ -1259,56 +1259,56 @@
         <v>0.0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>41.51249313354492</v>
+        <v>40.568050384521484</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>-58.31624221801758</v>
+        <v>-67.0333251953125</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1017.0441284179688</v>
+        <v>1021.248291015625</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>8.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>9.0</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>23.6007022857666</v>
+        <v>24.0</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>28.375600814819336</v>
+        <v>26.863384246826172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2022-08-30 11:00:00</t>
+          <t>2022-08-29 16:00:00</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.17841744422912598</v>
+        <v>0.19251514971256256</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.12747934460639954</v>
+        <v>0.12649916112422943</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2.534632444381714</v>
+        <v>2.6495845317840576</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2.5243453979492188</v>
+        <v>2.685692548751831</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.3773152828216553</v>
+        <v>2.5361831188201904</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.6314311027526855</v>
+        <v>2.8058688640594482</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>0.0</v>
@@ -1317,56 +1317,56 @@
         <v>0.0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>41.61262893676758</v>
+        <v>40.6215705871582</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-57.38431930541992</v>
+        <v>-66.54134368896484</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1017.3259887695312</v>
+        <v>1021.1204223632812</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>9.0</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>22.76650047302246</v>
+        <v>23.27780532836914</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>30.100000381469727</v>
+        <v>26.325979232788086</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2022-08-30 13:00:00</t>
+          <t>2022-08-29 17:00:00</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.1846129447221756</v>
+        <v>0.17739544808864594</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.12758252024650574</v>
+        <v>0.12655074894428253</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2.5370967388153076</v>
+        <v>2.625999689102173</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2.525787591934204</v>
+        <v>2.6630449295043945</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.3460190296173096</v>
+        <v>2.517474889755249</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.6209912300109863</v>
+        <v>2.7575793266296387</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0.0</v>
@@ -1375,56 +1375,56 @@
         <v>0.0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>41.712425231933594</v>
+        <v>40.67559051513672</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>-56.4547119140625</v>
+        <v>-66.04764556884766</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1017.6078491210938</v>
+        <v>1020.768798828125</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>9.0</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>8.0</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>22.998798370361328</v>
+        <v>23.599597930908203</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>31.263694763183594</v>
+        <v>25.85033416748047</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2022-08-30 15:00:00</t>
+          <t>2022-08-29 18:00:00</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.17591282725334167</v>
+        <v>0.17949217557907104</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.12768569588661194</v>
+        <v>0.12660233676433563</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>2.6881415843963623</v>
+        <v>2.577010154724121</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2.664869546890259</v>
+        <v>2.5982558727264404</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.7657036781311035</v>
+        <v>2.436493396759033</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.791125535964966</v>
+        <v>2.7149813175201416</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>0.0</v>
@@ -1433,56 +1433,56 @@
         <v>0.0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>41.82069396972656</v>
+        <v>40.728519439697266</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>-55.44200134277344</v>
+        <v>-65.5611572265625</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1017.8897094726562</v>
+        <v>1020.4171142578125</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>9.5</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>23.633289337158203</v>
+        <v>22.674373626708984</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>30.426389694213867</v>
+        <v>26.223421096801758</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2022-08-30 17:00:00</t>
+          <t>2022-08-29 19:00:00</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.17826798558235168</v>
+        <v>0.17794685065746307</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.12778887152671814</v>
+        <v>0.12665392458438873</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2.6830151081085205</v>
+        <v>2.544126510620117</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2.6632399559020996</v>
+        <v>2.5846927165985107</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.750671148300171</v>
+        <v>2.4242637157440186</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.731121063232422</v>
+        <v>2.6541666984558105</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>0.0</v>
@@ -1491,56 +1491,56 @@
         <v>0.0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>41.92557144165039</v>
+        <v>40.78207778930664</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>-54.461402893066406</v>
+        <v>-65.06708526611328</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1018.171630859375</v>
+        <v>1020.0654907226562</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>22.100000381469727</v>
+        <v>23.19939613342285</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>29.394264221191406</v>
+        <v>26.121700286865234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2022-08-30 19:00:00</t>
+          <t>2022-08-29 20:00:00</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.2364548146724701</v>
+        <v>0.17888548970222473</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.12789206206798553</v>
+        <v>0.12670551240444183</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2.6317367553710938</v>
+        <v>2.5787527561187744</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>2.6220555305480957</v>
+        <v>2.6141927242279053</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.7178168296813965</v>
+        <v>2.4661738872528076</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.744633913040161</v>
+        <v>2.660860538482666</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>0.0</v>
@@ -1549,56 +1549,56 @@
         <v>0.0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>42.02668380737305</v>
+        <v>40.834556579589844</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>-53.49645233154297</v>
+        <v>-64.58771514892578</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1018.4534912109375</v>
+        <v>1019.7138671875</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>9.5</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>23.800249099731445</v>
+        <v>23.602096557617188</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>29.057893753051758</v>
+        <v>25.292531967163086</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2022-08-30 21:00:00</t>
+          <t>2022-08-29 21:00:00</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.17831389605998993</v>
+        <v>0.20102611184120178</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.12799523770809174</v>
+        <v>0.12675711512565613</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2.6838841438293457</v>
+        <v>2.5627248287200928</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.6558070182800293</v>
+        <v>2.6003003120422363</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.744220733642578</v>
+        <v>2.4420578479766846</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.766573429107666</v>
+        <v>2.683899164199829</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0.0</v>
@@ -1607,56 +1607,56 @@
         <v>0.0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>42.13798141479492</v>
+        <v>40.885986328125</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>-52.47496032714844</v>
+        <v>-64.11133575439453</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1018.7353515625</v>
+        <v>1019.3621826171875</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.0</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>23.777835845947266</v>
+        <v>22.300199508666992</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>29.040409088134766</v>
+        <v>24.883007049560547</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2022-08-30 23:00:00</t>
+          <t>2022-08-29 22:00:00</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.17848975956439972</v>
+        <v>0.1794491410255432</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.12809841334819794</v>
+        <v>0.12680870294570923</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2.696995258331299</v>
+        <v>2.4598629474639893</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2.666069746017456</v>
+        <v>2.4741013050079346</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.757516384124756</v>
+        <v>2.535881757736206</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.7370500564575195</v>
+        <v>2.5956673622131348</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>0.0</v>
@@ -1665,56 +1665,56 @@
         <v>0.0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>42.249942779541016</v>
+        <v>40.93439865112305</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>-51.418556213378906</v>
+        <v>-63.63706970214844</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1019.1130981445312</v>
+        <v>1019.0105590820312</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.5</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>9.0</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>23.800132751464844</v>
+        <v>21.633243560791016</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>28.67824363708496</v>
+        <v>24.897926330566406</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2022-08-31 01:00:00</t>
+          <t>2022-08-29 23:00:00</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.17754144966602325</v>
+        <v>0.1782195270061493</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.12820158898830414</v>
+        <v>0.12686029076576233</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2.7252771854400635</v>
+        <v>2.4727866649627686</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>2.690586805343628</v>
+        <v>2.4831714630126953</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.7687089443206787</v>
+        <v>2.3766911029815674</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.7939653396606445</v>
+        <v>2.5901854038238525</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0.0</v>
@@ -1723,56 +1723,56 @@
         <v>0.0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>42.36451721191406</v>
+        <v>40.99057388305664</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>-50.33946228027344</v>
+        <v>-63.15400314331055</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1019.6255493164062</v>
+        <v>1018.6588745117188</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>9.0</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.5</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>22.99989891052246</v>
+        <v>22.40013313293457</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>27.792057037353516</v>
+        <v>25.34898567199707</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2022-08-31 03:00:00</t>
+          <t>2022-08-30 00:00:00</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.17890958487987518</v>
+        <v>0.22570550441741943</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.12830476462841034</v>
+        <v>0.12691187858581543</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2.6850342750549316</v>
+        <v>2.4754879474639893</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>2.6440463066101074</v>
+        <v>2.4777462482452393</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.747835874557495</v>
+        <v>2.3624584674835205</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.714040756225586</v>
+        <v>2.608548879623413</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>0.0</v>
@@ -1781,56 +1781,56 @@
         <v>0.0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>42.521915435791016</v>
+        <v>41.04234313964844</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>-49.305274963378906</v>
+        <v>-62.67078399658203</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1020.1380004882812</v>
+        <v>1018.3072509765625</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>9.0</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.0</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.0</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>22.950149536132812</v>
+        <v>21.700801849365234</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>25.85329246520996</v>
+        <v>25.474294662475586</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2022-08-31 05:00:00</t>
+          <t>2022-08-30 01:00:00</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.18840785324573517</v>
+        <v>0.17533469200134277</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.12840794026851654</v>
+        <v>0.12696346640586853</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>2.611475706100464</v>
+        <v>2.482726812362671</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>2.619021415710449</v>
+        <v>2.4871578216552734</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.6521260738372803</v>
+        <v>2.3274435997009277</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.6968445777893066</v>
+        <v>2.5588204860687256</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0.0</v>
@@ -1839,56 +1839,56 @@
         <v>0.0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>42.70256423950195</v>
+        <v>41.09366989135742</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>-48.28556442260742</v>
+        <v>-62.19715118408203</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1020.650390625</v>
+        <v>1017.9556274414062</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.5</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>9.5</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>23.700000762939453</v>
+        <v>21.5</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>26.75541114807129</v>
+        <v>25.473121643066406</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2022-08-31 07:00:00</t>
+          <t>2022-08-30 02:00:00</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.17771537601947784</v>
+        <v>0.18109442293643951</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.12851111590862274</v>
+        <v>0.12701505422592163</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>2.6669538021087646</v>
+        <v>2.459085464477539</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>2.6332457065582275</v>
+        <v>2.4668924808502197</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.6909444332122803</v>
+        <v>2.323838710784912</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.659686803817749</v>
+        <v>2.5594141483306885</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>0.0</v>
@@ -1897,56 +1897,56 @@
         <v>0.0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>42.885398864746094</v>
+        <v>41.146705627441406</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>-47.246517181396484</v>
+        <v>-61.70732498168945</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1021.162841796875</v>
+        <v>1017.6039428710938</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>9.5</v>
+        <v>8.0</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>9.5</v>
+        <v>8.0</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>24.299999237060547</v>
+        <v>23.000450134277344</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>27.5</v>
+        <v>25.84002685546875</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>2022-08-31 09:00:00</t>
+          <t>2022-08-30 03:00:00</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.17807546257972717</v>
+        <v>0.17931616306304932</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.12861429154872894</v>
+        <v>0.12706664204597473</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>2.6957764625549316</v>
+        <v>2.476285457611084</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2.665034294128418</v>
+        <v>2.4934754371643066</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.732198476791382</v>
+        <v>2.3329310417175293</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.702005624771118</v>
+        <v>2.558865547180176</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0.0</v>
@@ -1955,56 +1955,56 @@
         <v>0.0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>43.06595993041992</v>
+        <v>41.20222091674805</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>-46.20682907104492</v>
+        <v>-61.194393157958984</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1021.6752319335938</v>
+        <v>1017.2523193359375</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.5</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>23.03315544128418</v>
+        <v>23.133222579956055</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>27.55817985534668</v>
+        <v>26.757579803466797</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>2022-08-31 11:00:00</t>
+          <t>2022-08-30 04:00:00</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.17827360332012177</v>
+        <v>0.1782456785440445</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.12871746718883514</v>
+        <v>0.12711822986602783</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2.7216367721557617</v>
+        <v>2.448448419570923</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>2.6592772006988525</v>
+        <v>2.452073812484741</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.747610569000244</v>
+        <v>2.297227382659912</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.7429018020629883</v>
+        <v>2.555945873260498</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>0.0</v>
@@ -2013,56 +2013,56 @@
         <v>0.0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>43.25188064575195</v>
+        <v>41.25867462158203</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>-45.14563751220703</v>
+        <v>-60.668888092041016</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1022.1876831054688</v>
+        <v>1016.9006958007812</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>9.0</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.5</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>23.84972381591797</v>
+        <v>23.39971351623535</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>28.95120620727539</v>
+        <v>27.508176803588867</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>2022-08-31 13:00:00</t>
+          <t>2022-08-30 05:00:00</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.18162648379802704</v>
+        <v>0.1780652552843094</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.12882064282894135</v>
+        <v>0.12716981768608093</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>2.7316765785217285</v>
+        <v>2.4683518409729004</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2.6565158367156982</v>
+        <v>2.4356133937835693</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.7574541568756104</v>
+        <v>2.3119688034057617</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.7897698879241943</v>
+        <v>2.5774524211883545</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>0.0</v>
@@ -2071,56 +2071,56 @@
         <v>0.0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>43.44099807739258</v>
+        <v>41.314697265625</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>-44.079044342041016</v>
+        <v>-60.15315628051758</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1022.7001342773438</v>
+        <v>1016.5490112304688</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>9.0</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.0</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>23.5</v>
+        <v>22.43344497680664</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>27.452123641967773</v>
+        <v>27.502073287963867</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2022-08-31 15:00:00</t>
+          <t>2022-08-30 06:00:00</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.17746776342391968</v>
+        <v>0.1790536791086197</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.12892381846904755</v>
+        <v>0.12722140550613403</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>2.7362051010131836</v>
+        <v>2.4789912700653076</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>2.665926456451416</v>
+        <v>2.4650487899780273</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.763392448425293</v>
+        <v>2.3515164852142334</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.726864814758301</v>
+        <v>2.581364393234253</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>0.0</v>
@@ -2129,56 +2129,56 @@
         <v>0.0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>43.63325881958008</v>
+        <v>41.36593246459961</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>-42.980037689208984</v>
+        <v>-59.678184509277344</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1023.2125244140625</v>
+        <v>1016.6212768554688</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>9.0</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>23.600034713745117</v>
+        <v>23.149799346923828</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>27.484642028808594</v>
+        <v>28.624448776245117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2022-08-31 17:00:00</t>
+          <t>2022-08-30 07:00:00</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.17789775133132935</v>
+        <v>0.17813915014266968</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.12902700901031494</v>
+        <v>0.12727299332618713</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>2.6942410469055176</v>
+        <v>2.4386115074157715</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>2.6281630992889404</v>
+        <v>2.4275102615356445</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.718088388442993</v>
+        <v>2.3231213092803955</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.7320713996887207</v>
+        <v>2.564481496810913</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>0.0</v>
@@ -2187,56 +2187,56 @@
         <v>0.0</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>43.81856155395508</v>
+        <v>41.41450881958008</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>-41.9149169921875</v>
+        <v>-59.22581481933594</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1023.7225952148438</v>
+        <v>1016.76220703125</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>23.5</v>
+        <v>22.899831771850586</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>26.931537628173828</v>
+        <v>28.112403869628906</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>2022-08-31 19:00:00</t>
+          <t>2022-08-30 08:00:00</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.19119179248809814</v>
+        <v>0.1780318170785904</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.12913018465042114</v>
+        <v>0.12732458114624023</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>2.710310935974121</v>
+        <v>2.4620249271392822</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>2.6371943950653076</v>
+        <v>2.455746650695801</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.736436367034912</v>
+        <v>2.347254753112793</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.7065584659576416</v>
+        <v>2.6262526512145996</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>0.0</v>
@@ -2245,56 +2245,56 @@
         <v>0.0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>43.99348831176758</v>
+        <v>41.46277618408203</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>-40.90401840209961</v>
+        <v>-58.77653884887695</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1024.1856689453125</v>
+        <v>1016.9031372070312</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>9.0</v>
+        <v>8.202186584472656</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.401094436645508</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>9.5</v>
+        <v>8.001093864440918</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.101094245910645</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>23.399700164794922</v>
+        <v>22.898534774780273</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>27.054763793945312</v>
+        <v>28.280384063720703</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>2022-08-31 21:00:00</t>
+          <t>2022-08-30 09:00:00</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.2301088571548462</v>
+        <v>0.09913702309131622</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.12923336029052734</v>
+        <v>0.12737616896629333</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2.6841907501220703</v>
+        <v>2.4740843772888184</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>2.601161003112793</v>
+        <v>2.4727227687835693</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.7146897315979004</v>
+        <v>2.325106143951416</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.7011148929595947</v>
+        <v>2.5753326416015625</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0.0</v>
@@ -2303,56 +2303,56 @@
         <v>0.0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>44.16984939575195</v>
+        <v>41.51249313354492</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>-39.88449478149414</v>
+        <v>-58.31624221801758</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1024.648681640625</v>
+        <v>1017.0441284179688</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>8.5</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>23.699832916259766</v>
+        <v>23.6007022857666</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>26.424205780029297</v>
+        <v>28.375600814819336</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>2022-08-31 23:00:00</t>
+          <t>2022-08-30 10:00:00</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.17688901722431183</v>
+        <v>0.17850817739963531</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.12933653593063354</v>
+        <v>0.12742775678634644</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>2.646456480026245</v>
+        <v>2.4888646602630615</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>2.5617012977600098</v>
+        <v>2.481738328933716</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.6632704734802246</v>
+        <v>2.3322033882141113</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.6528921127319336</v>
+        <v>2.555692434310913</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0.0</v>
@@ -2361,56 +2361,56 @@
         <v>0.0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>44.336360931396484</v>
+        <v>41.562843322753906</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>-38.91776657104492</v>
+        <v>-57.84617614746094</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1025.0926513671875</v>
+        <v>1017.18505859375</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>9.0</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.5</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>23.350753784179688</v>
+        <v>22.60040283203125</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>26.374380111694336</v>
+        <v>28.63225555419922</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>2022-09-01 01:00:00</t>
+          <t>2022-08-30 11:00:00</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.22375328838825226</v>
+        <v>0.17841744422912598</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.12943971157073975</v>
+        <v>0.12747934460639954</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2.7109038829803467</v>
+        <v>2.534632444381714</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2.634312391281128</v>
+        <v>2.5243453979492188</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.7193892002105713</v>
+        <v>2.3773152828216553</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.7254788875579834</v>
+        <v>2.6314311027526855</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0.0</v>
@@ -2419,56 +2419,56 @@
         <v>0.0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>44.51551818847656</v>
+        <v>41.61262893676758</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>-37.8734245300293</v>
+        <v>-57.38431930541992</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1024.804443359375</v>
+        <v>1017.3259887695312</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>8.700798034667969</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>9.600798606872559</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>10.0</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>23.300800323486328</v>
+        <v>22.76650047302246</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>25.497156143188477</v>
+        <v>30.100000381469727</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2022-09-01 03:00:00</t>
+          <t>2022-08-30 12:00:00</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.18998819589614868</v>
+        <v>0.17779147624969482</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.12954288721084595</v>
+        <v>0.12753093242645264</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>2.7140326499938965</v>
+        <v>2.546828269958496</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>2.6222519874572754</v>
+        <v>2.536088466644287</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.7145965099334717</v>
+        <v>2.3526816368103027</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.7068347930908203</v>
+        <v>2.644676923751831</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0.0</v>
@@ -2477,56 +2477,56 @@
         <v>0.0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>44.702083587646484</v>
+        <v>41.662864685058594</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>-36.78561782836914</v>
+        <v>-56.9161376953125</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1024.5162353515625</v>
+        <v>1017.4669189453125</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>9.0</v>
+        <v>8.5</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>10.0</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>23.800201416015625</v>
+        <v>23.20053482055664</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>25.28813362121582</v>
+        <v>30.525636672973633</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2022-09-01 05:00:00</t>
+          <t>2022-08-30 13:00:00</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.17702868580818176</v>
+        <v>0.1846129447221756</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.12964606285095215</v>
+        <v>0.12758252024650574</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>2.703141927719116</v>
+        <v>2.5370967388153076</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>2.608896493911743</v>
+        <v>2.525787591934204</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.692028284072876</v>
+        <v>2.3460190296173096</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.677651882171631</v>
+        <v>2.6209912300109863</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0.0</v>
@@ -2535,56 +2535,56 @@
         <v>0.0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>44.88610076904297</v>
+        <v>41.712425231933594</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>-35.70795440673828</v>
+        <v>-56.4547119140625</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1024.22802734375</v>
+        <v>1017.6078491210938</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>8.0</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>10.0</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>23.79949951171875</v>
+        <v>22.998798370361328</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>24.425750732421875</v>
+        <v>31.263694763183594</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2022-09-01 07:00:00</t>
+          <t>2022-08-30 14:00:00</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.17814914882183075</v>
+        <v>0.1783566027879715</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.12974923849105835</v>
+        <v>0.12763410806655884</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>2.7386043071746826</v>
+        <v>2.678326368331909</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>2.637000799179077</v>
+        <v>2.661954879760742</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.7225170135498047</v>
+        <v>2.7037277221679688</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.7077512741088867</v>
+        <v>2.7646660804748535</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0.0</v>
@@ -2593,56 +2593,56 @@
         <v>0.0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>45.06241226196289</v>
+        <v>41.76559066772461</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>-34.66972351074219</v>
+        <v>-55.95877456665039</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1024.854736328125</v>
+        <v>1017.748779296875</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="N43" s="2" t="n">
         <v>8.90000057220459</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>22.500301361083984</v>
+        <v>24.1857852935791</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>23.862131118774414</v>
+        <v>30.717063903808594</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2022-09-01 09:00:00</t>
+          <t>2022-08-30 15:00:00</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.3459920883178711</v>
+        <v>0.17591282725334167</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.12985241413116455</v>
+        <v>0.12768569588661194</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6881415843963623</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>2.522874355316162</v>
+        <v>2.664869546890259</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>2.618962287902832</v>
+        <v>2.7657036781311035</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2.5963680744171143</v>
+        <v>2.791125535964966</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0.0</v>
@@ -2651,56 +2651,56 @@
         <v>0.0</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>45.23461151123047</v>
+        <v>41.82069396972656</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>-33.65624237060547</v>
+        <v>-55.44200134277344</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>1025.3218994140625</v>
+        <v>1017.8897094726562</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>6.0</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>9.5</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>19.833187103271484</v>
+        <v>23.633289337158203</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>24.926450729370117</v>
+        <v>30.426389694213867</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2022-09-01 11:00:00</t>
+          <t>2022-08-30 16:00:00</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.27522456645965576</v>
+        <v>0.17750103771686554</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.12995558977127075</v>
+        <v>0.12773728370666504</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6597535610198975</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2.653256893157959</v>
+        <v>2.643634557723999</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>2.7442879676818848</v>
+        <v>2.731797695159912</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>2.753833770751953</v>
+        <v>2.744568347930908</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0.0</v>
@@ -2709,56 +2709,56 @@
         <v>0.0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>45.39378356933594</v>
+        <v>41.874576568603516</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>-32.71476745605469</v>
+        <v>-54.940040588378906</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>1025.7890625</v>
+        <v>1018.0306396484375</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>21.420087814331055</v>
+        <v>23.299949645996094</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>25.58588218688965</v>
+        <v>29.938127517700195</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2022-09-01 13:00:00</t>
+          <t>2022-08-30 17:00:00</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.1767580807209015</v>
+        <v>0.17826798558235168</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.13005876541137695</v>
+        <v>0.12778887152671814</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6830151081085205</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>2.6516194343566895</v>
+        <v>2.6632399559020996</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>2.7418997287750244</v>
+        <v>2.750671148300171</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>2.7529263496398926</v>
+        <v>2.731121063232422</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0.0</v>
@@ -2767,56 +2767,56 @@
         <v>0.0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>45.551090240478516</v>
+        <v>41.92557144165039</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>-31.782426834106445</v>
+        <v>-54.461402893066406</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>1026.2562255859375</v>
+        <v>1018.171630859375</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>6.5</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>20.928585052490234</v>
+        <v>22.100000381469727</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>24.74261474609375</v>
+        <v>29.394264221191406</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2022-09-01 15:00:00</t>
+          <t>2022-08-30 18:00:00</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.21158170700073242</v>
+        <v>0.17778576910495758</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.13016195595264435</v>
+        <v>0.12784045934677124</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6098344326019287</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>2.639826536178589</v>
+        <v>2.5933163166046143</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>2.72501277923584</v>
+        <v>2.683861494064331</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>2.7232837677001953</v>
+        <v>2.681183099746704</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0.0</v>
@@ -2825,56 +2825,56 @@
         <v>0.0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>45.705322265625</v>
+        <v>41.97651290893555</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>-30.86565399169922</v>
+        <v>-53.98458480834961</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>1026.6949462890625</v>
+        <v>1018.3125610351562</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>20.600000381469727</v>
+        <v>24.300251007080078</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>24.477479934692383</v>
+        <v>29.209278106689453</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2022-09-01 17:00:00</t>
+          <t>2022-08-30 19:00:00</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.19235047698020935</v>
+        <v>0.2364548146724701</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.13026513159275055</v>
+        <v>0.12789206206798553</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6317367553710938</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2.651806354522705</v>
+        <v>2.6220555305480957</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>2.7313284873962402</v>
+        <v>2.7178168296813965</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>2.7285804748535156</v>
+        <v>2.744633913040161</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0.0</v>
@@ -2883,56 +2883,56 @@
         <v>0.0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>45.85985565185547</v>
+        <v>42.02668380737305</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>-29.94298553466797</v>
+        <v>-53.49645233154297</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>1026.59228515625</v>
+        <v>1018.4534912109375</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>6.699598789215088</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>6.399598598480225</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>21.2002010345459</v>
+        <v>23.800249099731445</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>24.299999237060547</v>
+        <v>29.057893753051758</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2022-09-01 19:00:00</t>
+          <t>2022-08-30 20:00:00</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.1761711984872818</v>
+        <v>0.17801271378993988</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.13036830723285675</v>
+        <v>0.12794364988803864</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>2.407102108001709</v>
+        <v>2.640146493911743</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2.37796688079834</v>
+        <v>2.630894422531128</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>2.475184679031372</v>
+        <v>2.7251579761505127</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>2.4922215938568115</v>
+        <v>2.7410523891448975</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>0.0</v>
@@ -2941,56 +2941,56 @@
         <v>0.0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>46.013694763183594</v>
+        <v>42.08633804321289</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>-29.01165771484375</v>
+        <v>-52.99344253540039</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>1026.48974609375</v>
+        <v>1018.5944213867188</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>8.5</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>8.0</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>8.0</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>21.0</v>
+        <v>23.699798583984375</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>23.879587173461914</v>
+        <v>29.014331817626953</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2022-09-01 21:00:00</t>
+          <t>2022-08-30 21:00:00</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.17660494148731232</v>
+        <v>0.17831389605998993</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.13047148287296295</v>
+        <v>0.12799523770809174</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>2.6465442180633545</v>
+        <v>2.6838841438293457</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>2.6711881160736084</v>
+        <v>2.6558070182800293</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>2.7353506088256836</v>
+        <v>2.744220733642578</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>2.7699131965637207</v>
+        <v>2.766573429107666</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>0.0</v>
@@ -2999,56 +2999,56 @@
         <v>0.0</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>46.191341400146484</v>
+        <v>42.13798141479492</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>-27.9427490234375</v>
+        <v>-52.47496032714844</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>1026.3870849609375</v>
+        <v>1018.7353515625</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>21.700000762939453</v>
+        <v>23.777835845947266</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>23.676679611206055</v>
+        <v>29.040409088134766</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2022-09-01 23:00:00</t>
+          <t>2022-08-30 22:00:00</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.2530613839626312</v>
+        <v>0.17707368731498718</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.13057465851306915</v>
+        <v>0.12804682552814484</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>2.6454648971557617</v>
+        <v>2.7015841007232666</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>2.6692419052124023</v>
+        <v>2.6770288944244385</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>2.741548538208008</v>
+        <v>2.759239435195923</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>2.738156318664551</v>
+        <v>2.722527503967285</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>0.0</v>
@@ -3057,56 +3057,56 @@
         <v>0.0</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>46.37333297729492</v>
+        <v>42.19617462158203</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>-26.862125396728516</v>
+        <v>-51.95153045654297</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>1026.284423828125</v>
+        <v>1018.8762817382812</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>9.90000057220459</v>
+        <v>9.0</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>22.033422470092773</v>
+        <v>23.280065536499023</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>23.299999237060547</v>
+        <v>28.855518341064453</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>2022-09-02 01:00:00</t>
+          <t>2022-08-30 23:00:00</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.17877669632434845</v>
+        <v>0.17848975956439972</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.13067783415317535</v>
+        <v>0.12809841334819794</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>2.610750913619995</v>
+        <v>2.696995258331299</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>2.61861252784729</v>
+        <v>2.666069746017456</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>2.7279629707336426</v>
+        <v>2.757516384124756</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>2.701650857925415</v>
+        <v>2.7370500564575195</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>0.0</v>
@@ -3115,56 +3115,56 @@
         <v>0.0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>46.55159378051758</v>
+        <v>42.249942779541016</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>-25.787492752075195</v>
+        <v>-51.418556213378906</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>1026.1817626953125</v>
+        <v>1019.1130981445312</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>9.90000057220459</v>
+        <v>9.0</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P52" s="2" t="n">
         <v>9.40000057220459</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>22.600902557373047</v>
+        <v>23.800132751464844</v>
       </c>
       <c r="R52" s="2" t="n">
-        <v>22.413549423217773</v>
+        <v>28.67824363708496</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>2022-09-02 03:00:00</t>
+          <t>2022-08-31 00:00:00</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.17850540578365326</v>
+        <v>0.20289470255374908</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.13078100979328156</v>
+        <v>0.12815000116825104</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>2.5768349170684814</v>
+        <v>2.7116308212280273</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>2.594341516494751</v>
+        <v>2.6530795097351074</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>2.6911230087280273</v>
+        <v>2.7445404529571533</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>2.6946611404418945</v>
+        <v>2.721693754196167</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0.0</v>
@@ -3173,56 +3173,56 @@
         <v>0.0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>46.72911834716797</v>
+        <v>42.30699157714844</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>-24.711185455322266</v>
+        <v>-50.88106918334961</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>1025.872314453125</v>
+        <v>1019.3693237304688</v>
       </c>
       <c r="M53" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O53" s="2" t="n">
         <v>9.5</v>
       </c>
-      <c r="N53" s="2" t="n">
-        <v>9.699999809265137</v>
-      </c>
-      <c r="O53" s="2" t="n">
-        <v>9.0</v>
-      </c>
       <c r="P53" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.5</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>21.600603103637695</v>
+        <v>23.460159301757812</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>22.128047943115234</v>
+        <v>28.50096893310547</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>2022-09-02 05:00:00</t>
+          <t>2022-08-31 01:00:00</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.1790836751461029</v>
+        <v>0.17754144966602325</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.13088418543338776</v>
+        <v>0.12820158898830414</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>2.581120014190674</v>
+        <v>2.7252771854400635</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>2.59562087059021</v>
+        <v>2.690586805343628</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>2.6719584465026855</v>
+        <v>2.7687089443206787</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>2.675581693649292</v>
+        <v>2.7939653396606445</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>0.0</v>
@@ -3231,56 +3231,56 @@
         <v>0.0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>46.90617752075195</v>
+        <v>42.36451721191406</v>
       </c>
       <c r="K54" s="2" t="n">
-        <v>-23.635393142700195</v>
+        <v>-50.33946228027344</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>1024.7479248046875</v>
+        <v>1019.6255493164062</v>
       </c>
       <c r="M54" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N54" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O54" s="2" t="n">
         <v>9.600000381469727</v>
       </c>
-      <c r="N54" s="2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O54" s="2" t="n">
-        <v>8.800000190734863</v>
-      </c>
       <c r="P54" s="2" t="n">
-        <v>9.0</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>22.266979217529297</v>
+        <v>22.99989891052246</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>22.349563598632812</v>
+        <v>27.792057037353516</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>2022-09-02 07:00:00</t>
+          <t>2022-08-31 02:00:00</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.26160725951194763</v>
+        <v>0.23809413611888885</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.13098736107349396</v>
+        <v>0.12825317680835724</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2.567577600479126</v>
+        <v>2.6921586990356445</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2.57759165763855</v>
+        <v>2.644723415374756</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>2.6914234161376953</v>
+        <v>2.6888532638549805</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>2.6735763549804688</v>
+        <v>2.6633617877960205</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>0.0</v>
@@ -3289,56 +3289,56 @@
         <v>0.0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>47.08229064941406</v>
+        <v>42.431251525878906</v>
       </c>
       <c r="K55" s="2" t="n">
-        <v>-22.562719345092773</v>
+        <v>-49.815284729003906</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>1023.62353515625</v>
+        <v>1019.8817749023438</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>9.5</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>9.5</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>22.300399780273438</v>
+        <v>23.200000762939453</v>
       </c>
       <c r="R55" s="2" t="n">
-        <v>22.299999237060547</v>
+        <v>27.382293701171875</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2022-09-02 09:00:00</t>
+          <t>2022-08-31 03:00:00</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.17904068529605865</v>
+        <v>0.17890958487987518</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.13109053671360016</v>
+        <v>0.12830476462841034</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>2.6191704273223877</v>
+        <v>2.6850342750549316</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>2.6417675018310547</v>
+        <v>2.6440463066101074</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>2.7257726192474365</v>
+        <v>2.747835874557495</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>2.726048231124878</v>
+        <v>2.714040756225586</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>0.0</v>
@@ -3347,56 +3347,56 @@
         <v>0.0</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>47.25924301147461</v>
+        <v>42.521915435791016</v>
       </c>
       <c r="K56" s="2" t="n">
-        <v>-21.470983505249023</v>
+        <v>-49.305274963378906</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>1022.4991455078125</v>
+        <v>1020.1380004882812</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>9.5</v>
+        <v>9.0</v>
       </c>
       <c r="N56" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="P56" s="2" t="n">
         <v>9.600000381469727</v>
       </c>
-      <c r="O56" s="2" t="n">
-        <v>8.90000057220459</v>
-      </c>
-      <c r="P56" s="2" t="n">
-        <v>9.100000381469727</v>
-      </c>
       <c r="Q56" s="2" t="n">
-        <v>22.399700164794922</v>
+        <v>22.950149536132812</v>
       </c>
       <c r="R56" s="2" t="n">
-        <v>22.367755889892578</v>
+        <v>25.85329246520996</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>2022-09-02 11:00:00</t>
+          <t>2022-08-31 04:00:00</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.25841519236564636</v>
+        <v>0.17827925086021423</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.13119371235370636</v>
+        <v>0.12835635244846344</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>2.1455140113830566</v>
+        <v>2.6227407455444336</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>0.1978391408920288</v>
+        <v>2.5603702068328857</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>2.2707388401031494</v>
+        <v>2.6669816970825195</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>2.23197340965271</v>
+        <v>2.6608760356903076</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>0.0</v>
@@ -3405,56 +3405,56 @@
         <v>0.0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>47.436180114746094</v>
+        <v>42.61198806762695</v>
       </c>
       <c r="K57" s="2" t="n">
-        <v>-20.393667221069336</v>
+        <v>-48.79683303833008</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>1021.374755859375</v>
+        <v>1020.3941650390625</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>4.5</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>4.700000286102295</v>
+        <v>9.0</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>4.400000095367432</v>
+        <v>9.5</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>4.400000095367432</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>18.3987979888916</v>
+        <v>23.20009994506836</v>
       </c>
       <c r="R57" s="2" t="n">
-        <v>24.808818817138672</v>
+        <v>25.479663848876953</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>2022-09-02 13:00:00</t>
+          <t>2022-08-31 05:00:00</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.17910222709178925</v>
+        <v>0.18840785324573517</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.13129690289497375</v>
+        <v>0.12840794026851654</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>2.676839590072632</v>
+        <v>2.611475706100464</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>2.6869866847991943</v>
+        <v>2.619021415710449</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>2.759739398956299</v>
+        <v>2.6521260738372803</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>2.748302698135376</v>
+        <v>2.6968445777893066</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>0.0</v>
@@ -3463,19 +3463,19 @@
         <v>0.0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>47.60494613647461</v>
+        <v>42.70256423950195</v>
       </c>
       <c r="K58" s="2" t="n">
-        <v>-19.35428237915039</v>
+        <v>-48.28556442260742</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>1020.2503662109375</v>
+        <v>1020.650390625</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N58" s="2" t="n">
-        <v>9.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O58" s="2" t="n">
         <v>9.40000057220459</v>
@@ -3484,35 +3484,35 @@
         <v>9.5</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>23.6497745513916</v>
+        <v>23.700000762939453</v>
       </c>
       <c r="R58" s="2" t="n">
-        <v>24.179895401000977</v>
+        <v>26.75541114807129</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>2022-09-02 15:00:00</t>
+          <t>2022-08-31 06:00:00</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.22621066868305206</v>
+        <v>0.17738234996795654</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.13140007853507996</v>
+        <v>0.12845952808856964</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>2.6825437545776367</v>
+        <v>2.647949695587158</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>2.7137062549591064</v>
+        <v>2.6267809867858887</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>2.7742197513580322</v>
+        <v>2.687427043914795</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>2.773613929748535</v>
+        <v>2.6643879413604736</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>0.0</v>
@@ -3521,56 +3521,56 @@
         <v>0.0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>47.78379821777344</v>
+        <v>42.794010162353516</v>
       </c>
       <c r="K59" s="2" t="n">
-        <v>-18.248912811279297</v>
+        <v>-47.76708984375</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>1017.9307250976562</v>
+        <v>1020.9066162109375</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>9.5</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>9.5</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>21.99880027770996</v>
+        <v>23.500402450561523</v>
       </c>
       <c r="R59" s="2" t="n">
-        <v>21.700000762939453</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>2022-09-02 17:00:00</t>
+          <t>2022-08-31 07:00:00</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.22383779287338257</v>
+        <v>0.17771537601947784</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.13150325417518616</v>
+        <v>0.12851111590862274</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>2.7526564598083496</v>
+        <v>2.6669538021087646</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>2.7074389457702637</v>
+        <v>2.6332457065582275</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>2.801562547683716</v>
+        <v>2.6909444332122803</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>2.825191020965576</v>
+        <v>2.659686803817749</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>0.0</v>
@@ -3579,56 +3579,56 @@
         <v>0.0</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>47.96199417114258</v>
+        <v>42.885398864746094</v>
       </c>
       <c r="K60" s="2" t="n">
-        <v>-17.144224166870117</v>
+        <v>-47.246517181396484</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>1015.5551147460938</v>
+        <v>1021.162841796875</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>22.540023803710938</v>
+        <v>24.299999237060547</v>
       </c>
       <c r="R60" s="2" t="n">
-        <v>19.846210479736328</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>2022-09-02 19:00:00</t>
+          <t>2022-08-31 08:00:00</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.1821085661649704</v>
+        <v>0.17755775153636932</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.13160642981529236</v>
+        <v>0.12856270372867584</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>2.6212189197540283</v>
+        <v>2.662374973297119</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>2.6257474422454834</v>
+        <v>2.6365859508514404</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>2.6896674633026123</v>
+        <v>2.696678876876831</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>2.6950974464416504</v>
+        <v>2.744624614715576</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>0.0</v>
@@ -3637,56 +3637,56 @@
         <v>0.0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>48.135154724121094</v>
+        <v>42.97261428833008</v>
       </c>
       <c r="K61" s="2" t="n">
-        <v>-16.077016830444336</v>
+        <v>-46.72928237915039</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>1013.9276123046875</v>
+        <v>1021.4190673828125</v>
       </c>
       <c r="M61" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="N61" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O61" s="2" t="n">
         <v>9.5</v>
       </c>
-      <c r="N61" s="2" t="n">
-        <v>9.600000381469727</v>
-      </c>
-      <c r="O61" s="2" t="n">
-        <v>8.800000190734863</v>
-      </c>
       <c r="P61" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.5</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>22.2000675201416</v>
+        <v>23.599599838256836</v>
       </c>
       <c r="R61" s="2" t="n">
-        <v>18.091554641723633</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>2022-09-02 21:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>0.230069100856781</v>
+        <v>0.17807546257972717</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.13170960545539856</v>
+        <v>0.12861429154872894</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>2.6040093898773193</v>
+        <v>2.6957764625549316</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>2.618621349334717</v>
+        <v>2.665034294128418</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>2.6917386054992676</v>
+        <v>2.732198476791382</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>2.6967363357543945</v>
+        <v>2.702005624771118</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>0.0</v>
@@ -3695,56 +3695,56 @@
         <v>0.0</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>48.308773040771484</v>
+        <v>43.06595993041992</v>
       </c>
       <c r="K62" s="2" t="n">
-        <v>-14.98203182220459</v>
+        <v>-46.20682907104492</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>1011.864990234375</v>
+        <v>1021.6752319335938</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>9.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N62" s="2" t="n">
-        <v>9.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>22.16017723083496</v>
+        <v>23.03315544128418</v>
       </c>
       <c r="R62" s="2" t="n">
-        <v>17.557580947875977</v>
+        <v>27.55817985534668</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>2022-09-02 23:00:00</t>
+          <t>2022-08-31 10:00:00</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.18068663775920868</v>
+        <v>0.1786166876554489</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.13181278109550476</v>
+        <v>0.12866587936878204</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>2.582828998565674</v>
+        <v>2.7126975059509277</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>2.6019437313079834</v>
+        <v>2.6709482669830322</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>2.681051015853882</v>
+        <v>2.747208595275879</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>2.6771962642669678</v>
+        <v>2.7606537342071533</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>0.0</v>
@@ -3753,56 +3753,56 @@
         <v>0.0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>48.486671447753906</v>
+        <v>43.163883209228516</v>
       </c>
       <c r="K63" s="2" t="n">
-        <v>-13.869545936584473</v>
+        <v>-45.68598556518555</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>1009.8023071289062</v>
+        <v>1021.9314575195312</v>
       </c>
       <c r="M63" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N63" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O63" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="P63" s="2" t="n">
         <v>9.5</v>
       </c>
-      <c r="N63" s="2" t="n">
-        <v>9.600000381469727</v>
-      </c>
-      <c r="O63" s="2" t="n">
-        <v>8.90000057220459</v>
-      </c>
-      <c r="P63" s="2" t="n">
-        <v>9.199999809265137</v>
-      </c>
       <c r="Q63" s="2" t="n">
-        <v>23.499799728393555</v>
+        <v>23.95996856689453</v>
       </c>
       <c r="R63" s="2" t="n">
-        <v>17.4841365814209</v>
+        <v>28.574438095092773</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>2022-09-03 01:00:00</t>
+          <t>2022-08-31 11:00:00</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>0.17999111115932465</v>
+        <v>0.17827360332012177</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.13191595673561096</v>
+        <v>0.12871746718883514</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>2.595900297164917</v>
+        <v>2.7216367721557617</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>2.6157591342926025</v>
+        <v>2.6592772006988525</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>2.685129165649414</v>
+        <v>2.747610569000244</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>2.6840293407440186</v>
+        <v>2.7429018020629883</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>0.0</v>
@@ -3811,56 +3811,56 @@
         <v>0.0</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>48.66228103637695</v>
+        <v>43.25188064575195</v>
       </c>
       <c r="K64" s="2" t="n">
-        <v>-12.764768600463867</v>
+        <v>-45.14563751220703</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>1007.7396850585938</v>
+        <v>1022.1876831054688</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>9.5</v>
+        <v>9.0</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>9.0</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>22.433691024780273</v>
+        <v>23.84972381591797</v>
       </c>
       <c r="R64" s="2" t="n">
-        <v>18.798439025878906</v>
+        <v>28.95120620727539</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>2022-09-03 03:00:00</t>
+          <t>2022-08-31 12:00:00</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>0.18013767898082733</v>
+        <v>0.17832216620445251</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.13201913237571716</v>
+        <v>0.12876905500888824</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>2.5137295722961426</v>
+        <v>1.9741837978363037</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>2.5186479091644287</v>
+        <v>1.9472784996032715</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>2.5991618633270264</v>
+        <v>2.0648353099823</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>2.596895933151245</v>
+        <v>2.0786454677581787</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>0.0</v>
@@ -3869,56 +3869,56 @@
         <v>0.0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>48.841285705566406</v>
+        <v>43.34614944458008</v>
       </c>
       <c r="K65" s="2" t="n">
-        <v>-11.635393142700195</v>
+        <v>-44.61442947387695</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>1005.6770629882812</v>
+        <v>1022.4439086914062</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>9.5</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>23.399497985839844</v>
+        <v>19.77153778076172</v>
       </c>
       <c r="R65" s="2" t="n">
-        <v>18.113332748413086</v>
+        <v>28.713369369506836</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>2022-09-03 05:00:00</t>
+          <t>2022-08-31 13:00:00</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>0.17892877757549286</v>
+        <v>0.18162648379802704</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.13212230801582336</v>
+        <v>0.12882064282894135</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>2.5697426795959473</v>
+        <v>2.7316765785217285</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>2.5718438625335693</v>
+        <v>2.6565158367156982</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>2.6522037982940674</v>
+        <v>2.7574541568756104</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>2.6491940021514893</v>
+        <v>2.7897698879241943</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>0.0</v>
@@ -3927,56 +3927,56 @@
         <v>0.0</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>49.01813888549805</v>
+        <v>43.44099807739258</v>
       </c>
       <c r="K66" s="2" t="n">
-        <v>-10.51431941986084</v>
+        <v>-44.079044342041016</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>1004.0</v>
+        <v>1022.7001342773438</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>9.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.0</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>9.0</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>22.901601791381836</v>
+        <v>23.5</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>17.48630142211914</v>
+        <v>27.452123641967773</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>2022-09-03 07:00:00</t>
+          <t>2022-08-31 14:00:00</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>0.24671508371829987</v>
+        <v>0.17868952453136444</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.13222548365592957</v>
+        <v>0.12887223064899445</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>2.676429271697998</v>
+        <v>2.7237935066223145</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>2.646606206893921</v>
+        <v>2.6508891582489014</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>2.749805450439453</v>
+        <v>2.7399399280548096</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7412447929382324</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>0.0</v>
@@ -3985,56 +3985,56 @@
         <v>0.0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>49.18800354003906</v>
+        <v>43.53744125366211</v>
       </c>
       <c r="K67" s="2" t="n">
-        <v>-9.43564510345459</v>
+        <v>-43.53064727783203</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>1004.0</v>
+        <v>1022.9563598632812</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>6.5</v>
+        <v>9.0</v>
       </c>
       <c r="N67" s="2" t="n">
-        <v>6.900000095367432</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.5</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.5</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>19.600000381469727</v>
+        <v>23.49959945678711</v>
       </c>
       <c r="R67" s="2" t="n">
-        <v>17.922588348388672</v>
+        <v>27.787792205810547</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>2022-09-03 09:00:00</t>
+          <t>2022-08-31 15:00:00</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>0.4999133348464966</v>
+        <v>0.17746776342391968</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.13232867419719696</v>
+        <v>0.12892381846904755</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>2.433002471923828</v>
+        <v>2.7362051010131836</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>0.0</v>
+        <v>2.665926456451416</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>2.519190549850464</v>
+        <v>2.763392448425293</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>2.5498807430267334</v>
+        <v>2.726864814758301</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>0.0</v>
@@ -4043,56 +4043,56 @@
         <v>0.0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>49.34513473510742</v>
+        <v>43.63325881958008</v>
       </c>
       <c r="K68" s="2" t="n">
-        <v>-8.4336519241333</v>
+        <v>-42.980037689208984</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>1004.0</v>
+        <v>1023.2125244140625</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N68" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>9.0</v>
       </c>
       <c r="O68" s="2" t="n">
-        <v>5.599999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="P68" s="2" t="n">
-        <v>5.599999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>19.307676315307617</v>
+        <v>23.600034713745117</v>
       </c>
       <c r="R68" s="2" t="n">
-        <v>18.961252212524414</v>
+        <v>27.484642028808594</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>2022-09-03 11:00:00</t>
+          <t>2022-08-31 16:00:00</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>0.4147508442401886</v>
+        <v>0.19339978694915771</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.13243184983730316</v>
+        <v>0.12897540628910065</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>2.4399988651275635</v>
+        <v>2.7268030643463135</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6480977535247803</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>2.514378786087036</v>
+        <v>2.7330892086029053</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>2.5416133403778076</v>
+        <v>2.7477190494537354</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>0.0</v>
@@ -4101,56 +4101,56 @@
         <v>0.0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>49.49837112426758</v>
+        <v>43.72694396972656</v>
       </c>
       <c r="K69" s="2" t="n">
-        <v>-7.4548540115356445</v>
+        <v>-42.440731048583984</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>1004.0</v>
+        <v>1023.46875</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.0</v>
       </c>
       <c r="N69" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O69" s="2" t="n">
-        <v>5.400000095367432</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="P69" s="2" t="n">
-        <v>5.5</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>19.32002830505371</v>
+        <v>23.599939346313477</v>
       </c>
       <c r="R69" s="2" t="n">
-        <v>20.870210647583008</v>
+        <v>26.899999618530273</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>2022-09-03 13:00:00</t>
+          <t>2022-08-31 17:00:00</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>0.3718469440937042</v>
+        <v>0.17789775133132935</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.13253502547740936</v>
+        <v>0.12902700901031494</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>2.484576463699341</v>
+        <v>2.6942410469055176</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6281630992889404</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>2.557549476623535</v>
+        <v>2.718088388442993</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>2.583181619644165</v>
+        <v>2.7320713996887207</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>0.0</v>
@@ -4159,56 +4159,56 @@
         <v>0.0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>49.634456634521484</v>
+        <v>43.81856155395508</v>
       </c>
       <c r="K70" s="2" t="n">
-        <v>-6.4945173263549805</v>
+        <v>-41.9149169921875</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>1004.0</v>
+        <v>1023.7225952148438</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N70" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>5.5</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P70" s="2" t="n">
-        <v>5.599999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>19.40060043334961</v>
+        <v>23.5</v>
       </c>
       <c r="R70" s="2" t="n">
-        <v>22.792551040649414</v>
+        <v>26.931537628173828</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>2022-09-03 15:00:00</t>
+          <t>2022-08-31 18:00:00</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.15654154121875763</v>
+        <v>0.1774802953004837</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.13263820111751556</v>
+        <v>0.12907859683036804</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6788828372955322</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>2.525240182876587</v>
+        <v>2.620009422302246</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>2.6332123279571533</v>
+        <v>2.7042970657348633</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>2.608700752258301</v>
+        <v>2.7077033519744873</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>0.0</v>
@@ -4217,56 +4217,56 @@
         <v>0.0</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>49.67799377441406</v>
+        <v>43.90726852416992</v>
       </c>
       <c r="K71" s="2" t="n">
-        <v>-5.509808540344238</v>
+        <v>-41.402889251708984</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>1005.1967163085938</v>
+        <v>1023.9541015625</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>5.5</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>20.64995765686035</v>
+        <v>23.300901412963867</v>
       </c>
       <c r="R71" s="2" t="n">
-        <v>22.629501342773438</v>
+        <v>27.138566970825195</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>2022-09-03 17:00:00</t>
+          <t>2022-08-31 19:00:00</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.1799774467945099</v>
+        <v>0.19119179248809814</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.13274137675762177</v>
+        <v>0.12913018465042114</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.0</v>
+        <v>2.710310935974121</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>2.318565845489502</v>
+        <v>2.6371943950653076</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>2.2595255374908447</v>
+        <v>2.736436367034912</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>2.4180784225463867</v>
+        <v>2.7065584659576416</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>0.0</v>
@@ -4275,56 +4275,56 @@
         <v>0.0</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>49.75816345214844</v>
+        <v>43.99348831176758</v>
       </c>
       <c r="K72" s="2" t="n">
-        <v>-4.619317054748535</v>
+        <v>-40.90401840209961</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>1006.4056396484375</v>
+        <v>1024.1856689453125</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>4.900000095367432</v>
+        <v>9.0</v>
       </c>
       <c r="N72" s="2" t="n">
-        <v>5.400000095367432</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>5.099999904632568</v>
+        <v>9.5</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>4.900000095367432</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>20.198200225830078</v>
+        <v>23.399700164794922</v>
       </c>
       <c r="R72" s="2" t="n">
-        <v>21.608190536499023</v>
+        <v>27.054763793945312</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>2022-09-03 19:00:00</t>
+          <t>2022-08-31 20:00:00</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.177716463804245</v>
+        <v>0.17810288071632385</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.13284455239772797</v>
+        <v>0.12918177247047424</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7141032218933105</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>2.320967197418213</v>
+        <v>2.622642755508423</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>2.242762327194214</v>
+        <v>2.7347910404205322</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>2.4237253665924072</v>
+        <v>2.7383806705474854</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>0.0</v>
@@ -4333,56 +4333,56 @@
         <v>0.0</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>49.944801330566406</v>
+        <v>44.08063888549805</v>
       </c>
       <c r="K73" s="2" t="n">
-        <v>-3.7031397819519043</v>
+        <v>-40.4011116027832</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>1007.6145629882812</v>
+        <v>1024.4171142578125</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>5.099999904632568</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N73" s="2" t="n">
-        <v>5.400000095367432</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O73" s="2" t="n">
-        <v>4.800000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>4.900000095367432</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>18.966733932495117</v>
+        <v>23.00080108642578</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>22.470712661743164</v>
+        <v>26.848243713378906</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>2022-09-03 21:00:00</t>
+          <t>2022-08-31 21:00:00</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.2860562205314636</v>
+        <v>0.2301088571548462</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.13294772803783417</v>
+        <v>0.12923336029052734</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6841907501220703</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>2.3217811584472656</v>
+        <v>2.601161003112793</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>2.2312822341918945</v>
+        <v>2.7146897315979004</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>2.4113736152648926</v>
+        <v>2.7011148929595947</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>0.0</v>
@@ -4391,56 +4391,56 @@
         <v>0.0</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>50.23261642456055</v>
+        <v>44.16984939575195</v>
       </c>
       <c r="K74" s="2" t="n">
-        <v>-2.869286060333252</v>
+        <v>-39.88449478149414</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>1008.8235473632812</v>
+        <v>1024.648681640625</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>5.200000286102295</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N74" s="2" t="n">
-        <v>5.400000095367432</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="O74" s="2" t="n">
-        <v>4.800000190734863</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P74" s="2" t="n">
-        <v>4.900000095367432</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>19.399999618530273</v>
+        <v>23.699832916259766</v>
       </c>
       <c r="R74" s="2" t="n">
-        <v>22.75969123840332</v>
+        <v>26.424205780029297</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>2022-09-03 23:00:00</t>
+          <t>2022-08-31 22:00:00</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.3477526605129242</v>
+        <v>0.19736634194850922</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.13305090367794037</v>
+        <v>0.12928494811058044</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.0</v>
+        <v>2.1231648921966553</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>1.5348930358886719</v>
+        <v>2.076108455657959</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>1.5286918878555298</v>
+        <v>2.18764591217041</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>1.536128282546997</v>
+        <v>0.7630375623703003</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>0.0</v>
@@ -4449,56 +4449,56 @@
         <v>0.0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>50.32622146606445</v>
+        <v>44.25239181518555</v>
       </c>
       <c r="K75" s="2" t="n">
-        <v>-1.9219528436660767</v>
+        <v>-39.40568923950195</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>1010.032470703125</v>
+        <v>1024.880126953125</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>2.5</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>2.6000001430511475</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>2.5</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>2.4000000953674316</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>15.70035171508789</v>
+        <v>19.198801040649414</v>
       </c>
       <c r="R75" s="2" t="n">
-        <v>23.338132858276367</v>
+        <v>26.550973892211914</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>2022-09-04 01:00:00</t>
+          <t>2022-08-31 23:00:00</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>0.17724010348320007</v>
+        <v>0.17688901722431183</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.13315407931804657</v>
+        <v>0.12933653593063354</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.0</v>
+        <v>2.646456480026245</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1.4761602878570557</v>
+        <v>2.5617012977600098</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6632704734802246</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>1.5494757890701294</v>
+        <v>2.6528921127319336</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>0.0</v>
@@ -4507,146 +4507,4554 @@
         <v>0.0</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>50.54673767089844</v>
+        <v>44.336360931396484</v>
       </c>
       <c r="K76" s="2" t="n">
-        <v>-0.9945192337036133</v>
+        <v>-38.91776657104492</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>1011.0775756835938</v>
+        <v>1025.0926513671875</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>1.100000023841858</v>
+        <v>9.0</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>1.100000023841858</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>1.100000023841858</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>1.100000023841858</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>11.600000381469727</v>
+        <v>23.350753784179688</v>
       </c>
       <c r="R76" s="2" t="n">
-        <v>23.59210777282715</v>
+        <v>26.374380111694336</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>2022-09-04 03:00:00</t>
+          <t>2022-09-01 00:00:00</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>0.08610666543245316</v>
+        <v>0.2066805064678192</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0.13325725495815277</v>
+        <v>0.12938812375068665</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>1.1569498777389526</v>
+        <v>2.667968273162842</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5661892890930176</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6661670207977295</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>1.1669236421585083</v>
+        <v>2.63753604888916</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>2.871299982070923</v>
+        <v>0.0</v>
       </c>
       <c r="I77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>50.816261291503906</v>
+        <v>44.42522048950195</v>
       </c>
       <c r="K77" s="2" t="n">
-        <v>-1.2960145473480225</v>
+        <v>-38.40096664428711</v>
       </c>
       <c r="L77" s="2" t="n">
-        <v>1011.6610717773438</v>
+        <v>1024.9486083984375</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>2.0</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N77" s="2" t="n">
-        <v>2.0</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O77" s="2" t="n">
-        <v>2.0</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="P77" s="2" t="n">
-        <v>2.1000001430511475</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q77" s="2" t="n">
-        <v>11.533645629882812</v>
+        <v>23.657182693481445</v>
       </c>
       <c r="R77" s="2" t="n">
-        <v>23.200000762939453</v>
+        <v>25.7708797454834</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
+          <t>2022-09-01 01:00:00</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>0.22375328838825226</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>0.12943971157073975</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>2.7109038829803467</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>2.634312391281128</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>2.7193892002105713</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>2.7254788875579834</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>44.51551818847656</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>-37.8734245300293</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>1024.804443359375</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>8.700798034667969</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>9.600798606872559</v>
+      </c>
+      <c r="P78" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q78" s="2" t="n">
+        <v>23.300800323486328</v>
+      </c>
+      <c r="R78" s="2" t="n">
+        <v>25.497156143188477</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 02:00:00</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>0.17940543591976166</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>0.12949129939079285</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>2.7129263877868652</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>2.6413581371307373</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>2.697340726852417</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>2.702303171157837</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>44.60850524902344</v>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>-37.33082580566406</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>1024.660400390625</v>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="P79" s="2" t="n">
+        <v>9.90000057220459</v>
+      </c>
+      <c r="Q79" s="2" t="n">
+        <v>23.450252532958984</v>
+      </c>
+      <c r="R79" s="2" t="n">
+        <v>25.23539161682129</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 03:00:00</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>0.18998819589614868</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0.12954288721084595</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>2.7140326499938965</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>2.6222519874572754</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>2.7145965099334717</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>2.7068347930908203</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>44.702083587646484</v>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>-36.78561782836914</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>1024.5162353515625</v>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O80" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="P80" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q80" s="2" t="n">
+        <v>23.800201416015625</v>
+      </c>
+      <c r="R80" s="2" t="n">
+        <v>25.28813362121582</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 04:00:00</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>0.17777138948440552</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>0.12959447503089905</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>2.678093194961548</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>2.5887746810913086</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>2.6730401515960693</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>2.671658992767334</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>44.79423141479492</v>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>-36.2443733215332</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>1024.3721923828125</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P81" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="Q81" s="2" t="n">
+        <v>23.100000381469727</v>
+      </c>
+      <c r="R81" s="2" t="n">
+        <v>24.696062088012695</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 05:00:00</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>0.17702868580818176</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>0.12964606285095215</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>2.703141927719116</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>2.608896493911743</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>2.692028284072876</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>2.677651882171631</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>44.88610076904297</v>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>-35.70795440673828</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>1024.22802734375</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="P82" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q82" s="2" t="n">
+        <v>23.79949951171875</v>
+      </c>
+      <c r="R82" s="2" t="n">
+        <v>24.425750732421875</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 06:00:00</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>0.17809711396694183</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>0.12969765067100525</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>2.7075188159942627</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>2.608847141265869</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>2.6847310066223145</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>2.675952672958374</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>44.97494125366211</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>-35.18500518798828</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>1024.6212158203125</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="P83" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q83" s="2" t="n">
+        <v>23.513999938964844</v>
+      </c>
+      <c r="R83" s="2" t="n">
+        <v>23.858747482299805</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 07:00:00</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>0.17814914882183075</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>0.12974923849105835</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>2.7386043071746826</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>2.637000799179077</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>2.7225170135498047</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>2.7077512741088867</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>45.06241226196289</v>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>-34.66972351074219</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>1024.854736328125</v>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="P84" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="Q84" s="2" t="n">
+        <v>22.500301361083984</v>
+      </c>
+      <c r="R84" s="2" t="n">
+        <v>23.862131118774414</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>0.1783612221479416</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>0.12980082631111145</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>2.717453718185425</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>2.609842538833618</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>2.7044284343719482</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>2.7123494148254395</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>45.14989471435547</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>-34.155757904052734</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>1025.08837890625</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="P85" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q85" s="2" t="n">
+        <v>23.640361785888672</v>
+      </c>
+      <c r="R85" s="2" t="n">
+        <v>23.899999618530273</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 09:00:00</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>0.3459920883178711</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>0.12985241413116455</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>2.522874355316162</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>2.618962287902832</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>2.5963680744171143</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>45.23461151123047</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>-33.65624237060547</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>1025.3218994140625</v>
+      </c>
+      <c r="M86" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P86" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q86" s="2" t="n">
+        <v>19.833187103271484</v>
+      </c>
+      <c r="R86" s="2" t="n">
+        <v>24.926450729370117</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 10:00:00</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>0.2064366340637207</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0.12990400195121765</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>2.6509640216827393</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>2.7362489700317383</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>2.765089511871338</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>45.31376266479492</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>-33.18849563598633</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>1025.555419921875</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N87" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P87" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q87" s="2" t="n">
+        <v>20.925111770629883</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>25.100000381469727</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 11:00:00</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>0.27522456645965576</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>0.12995558977127075</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>2.653256893157959</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>2.7442879676818848</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>2.753833770751953</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>45.39378356933594</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>-32.71476745605469</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>1025.7890625</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P88" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q88" s="2" t="n">
+        <v>21.420087814331055</v>
+      </c>
+      <c r="R88" s="2" t="n">
+        <v>25.58588218688965</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 12:00:00</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>0.3074592053890228</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>0.13000717759132385</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>2.612147808074951</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>2.7100155353546143</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>2.717419385910034</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>45.47340393066406</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>-32.24367141723633</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>1026.0225830078125</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q89" s="2" t="n">
+        <v>21.230121612548828</v>
+      </c>
+      <c r="R89" s="2" t="n">
+        <v>25.043031692504883</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 13:00:00</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>0.1767580807209015</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>0.13005876541137695</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>2.6516194343566895</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>2.7418997287750244</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>2.7529263496398926</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>45.551090240478516</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>-31.782426834106445</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>1026.2562255859375</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q90" s="2" t="n">
+        <v>20.928585052490234</v>
+      </c>
+      <c r="R90" s="2" t="n">
+        <v>24.74261474609375</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 14:00:00</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>0.18855154514312744</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>0.13011036813259125</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>2.6778950691223145</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>2.75405216217041</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>2.7699999809265137</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>45.62742614746094</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>-31.327747344970703</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>1026.48974609375</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P91" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q91" s="2" t="n">
+        <v>20.400299072265625</v>
+      </c>
+      <c r="R91" s="2" t="n">
+        <v>24.907047271728516</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 15:00:00</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>0.21158170700073242</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>0.13016195595264435</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>2.639826536178589</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>2.72501277923584</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>2.7232837677001953</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>45.705322265625</v>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>-30.86565399169922</v>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>1026.6949462890625</v>
+      </c>
+      <c r="M92" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N92" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P92" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q92" s="2" t="n">
+        <v>20.600000381469727</v>
+      </c>
+      <c r="R92" s="2" t="n">
+        <v>24.477479934692383</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 16:00:00</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>0.17905336618423462</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>0.13021354377269745</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>2.655024528503418</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>2.7379772663116455</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>2.7418782711029053</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J93" s="2" t="n">
+        <v>45.782649993896484</v>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>-30.403316497802734</v>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>1026.6436767578125</v>
+      </c>
+      <c r="M93" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N93" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O93" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P93" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q93" s="2" t="n">
+        <v>20.799999237060547</v>
+      </c>
+      <c r="R93" s="2" t="n">
+        <v>24.437606811523438</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 17:00:00</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>0.19235047698020935</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>0.13026513159275055</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>2.651806354522705</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>2.7313284873962402</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>2.7285804748535156</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>45.85985565185547</v>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>-29.94298553466797</v>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>1026.59228515625</v>
+      </c>
+      <c r="M94" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N94" s="2" t="n">
+        <v>6.699598789215088</v>
+      </c>
+      <c r="O94" s="2" t="n">
+        <v>6.399598598480225</v>
+      </c>
+      <c r="P94" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q94" s="2" t="n">
+        <v>21.2002010345459</v>
+      </c>
+      <c r="R94" s="2" t="n">
+        <v>24.299999237060547</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 18:00:00</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>0.18961496651172638</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>0.13031671941280365</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>2.669076681137085</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>2.744235038757324</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>2.7325878143310547</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>45.93452072143555</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>-29.482763290405273</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>1026.541015625</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N95" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P95" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q95" s="2" t="n">
+        <v>19.999849319458008</v>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v>24.22736167907715</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 19:00:00</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>0.1761711984872818</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>0.13036830723285675</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>2.407102108001709</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>2.37796688079834</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>2.475184679031372</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>2.4922215938568115</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>46.013694763183594</v>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>-29.01165771484375</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>1026.48974609375</v>
+      </c>
+      <c r="M96" s="2" t="n">
+        <v>8.199999809265137</v>
+      </c>
+      <c r="N96" s="2" t="n">
+        <v>8.300000190734863</v>
+      </c>
+      <c r="O96" s="2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P96" s="2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q96" s="2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R96" s="2" t="n">
+        <v>23.879587173461914</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 20:00:00</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>0.23744656145572662</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>0.13041989505290985</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>2.682438850402832</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>2.708209991455078</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>2.7790255546569824</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>2.807523727416992</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>46.10330581665039</v>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>-28.48505401611328</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>1026.4383544921875</v>
+      </c>
+      <c r="M97" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N97" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O97" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P97" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q97" s="2" t="n">
+        <v>22.600000381469727</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>23.700000762939453</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 21:00:00</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>0.17660494148731232</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>0.13047148287296295</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>2.6465442180633545</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>2.6711881160736084</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>2.7353506088256836</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>2.7699131965637207</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>46.191341400146484</v>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>-27.9427490234375</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>1026.3870849609375</v>
+      </c>
+      <c r="M98" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N98" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O98" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="P98" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q98" s="2" t="n">
+        <v>21.700000762939453</v>
+      </c>
+      <c r="R98" s="2" t="n">
+        <v>23.676679611206055</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 22:00:00</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>0.21536050736904144</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>0.13052307069301605</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>2.6639788150787354</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>2.68224835395813</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>2.7519567012786865</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>2.7612907886505127</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>46.28370666503906</v>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>-27.403404235839844</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>1026.3358154296875</v>
+      </c>
+      <c r="M99" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="N99" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O99" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P99" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q99" s="2" t="n">
+        <v>21.90013313293457</v>
+      </c>
+      <c r="R99" s="2" t="n">
+        <v>23.256799697875977</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-01 23:00:00</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>0.2530613839626312</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>0.13057465851306915</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>2.6454648971557617</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>2.6692419052124023</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>2.741548538208008</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>2.738156318664551</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>46.37333297729492</v>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>-26.862125396728516</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>1026.284423828125</v>
+      </c>
+      <c r="M100" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="N100" s="2" t="n">
+        <v>9.90000057220459</v>
+      </c>
+      <c r="O100" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P100" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="Q100" s="2" t="n">
+        <v>22.033422470092773</v>
+      </c>
+      <c r="R100" s="2" t="n">
+        <v>23.299999237060547</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>0.1836119294166565</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>0.13062624633312225</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>2.6349663734436035</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>2.642171859741211</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>2.715989589691162</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>2.7344319820404053</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>46.46220016479492</v>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>-26.327165603637695</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>1026.233154296875</v>
+      </c>
+      <c r="M101" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N101" s="2" t="n">
+        <v>9.90000057220459</v>
+      </c>
+      <c r="O101" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P101" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="Q101" s="2" t="n">
+        <v>22.257099151611328</v>
+      </c>
+      <c r="R101" s="2" t="n">
+        <v>22.891376495361328</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 01:00:00</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>0.17877669632434845</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>0.13067783415317535</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>2.610750913619995</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>2.61861252784729</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>2.7279629707336426</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>2.701650857925415</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>46.55159378051758</v>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>-25.787492752075195</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>1026.1817626953125</v>
+      </c>
+      <c r="M102" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="N102" s="2" t="n">
+        <v>9.90000057220459</v>
+      </c>
+      <c r="O102" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P102" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="Q102" s="2" t="n">
+        <v>22.600902557373047</v>
+      </c>
+      <c r="R102" s="2" t="n">
+        <v>22.413549423217773</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 02:00:00</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>0.17877306044101715</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>0.13072942197322845</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>2.6117711067199707</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>2.6209990978240967</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>2.7055435180664062</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>2.7051784992218018</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="2" t="n">
+        <v>46.64033889770508</v>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>-25.249300003051758</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>1026.1304931640625</v>
+      </c>
+      <c r="M103" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N103" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O103" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P103" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q103" s="2" t="n">
+        <v>22.29924964904785</v>
+      </c>
+      <c r="R103" s="2" t="n">
+        <v>21.94571304321289</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 03:00:00</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>0.17850540578365326</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>0.13078100979328156</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>2.5768349170684814</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>2.594341516494751</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>2.6911230087280273</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>2.6946611404418945</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="2" t="n">
+        <v>46.72911834716797</v>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>-24.711185455322266</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>1025.872314453125</v>
+      </c>
+      <c r="M104" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N104" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O104" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P104" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="Q104" s="2" t="n">
+        <v>21.600603103637695</v>
+      </c>
+      <c r="R104" s="2" t="n">
+        <v>22.128047943115234</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 04:00:00</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>0.17842459678649902</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>0.13083259761333466</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>2.581822633743286</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>2.5926353931427</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>2.6693248748779297</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>2.687347888946533</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J105" s="2" t="n">
+        <v>46.8177490234375</v>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>-24.17359161376953</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>1025.31005859375</v>
+      </c>
+      <c r="M105" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N105" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O105" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P105" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q105" s="2" t="n">
+        <v>21.43306541442871</v>
+      </c>
+      <c r="R105" s="2" t="n">
+        <v>22.377384185791016</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 05:00:00</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>0.1790836751461029</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>0.13088418543338776</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>2.581120014190674</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>2.59562087059021</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>2.6719584465026855</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>2.675581693649292</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>46.90617752075195</v>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>-23.635393142700195</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>1024.7479248046875</v>
+      </c>
+      <c r="M106" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N106" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O106" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P106" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q106" s="2" t="n">
+        <v>22.266979217529297</v>
+      </c>
+      <c r="R106" s="2" t="n">
+        <v>22.349563598632812</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 06:00:00</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>0.1793542504310608</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>0.13093577325344086</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>2.5791945457458496</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>2.611365556716919</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>2.672114133834839</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>2.692917585372925</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="2" t="n">
+        <v>46.99462127685547</v>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>-23.096338272094727</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>1024.1856689453125</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N107" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O107" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P107" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q107" s="2" t="n">
+        <v>22.35030174255371</v>
+      </c>
+      <c r="R107" s="2" t="n">
+        <v>22.299999237060547</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 07:00:00</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>0.26160725951194763</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>0.13098736107349396</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>2.567577600479126</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>2.57759165763855</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>2.6914234161376953</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>2.6735763549804688</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J108" s="2" t="n">
+        <v>47.08229064941406</v>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>-22.562719345092773</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>1023.62353515625</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N108" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O108" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P108" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q108" s="2" t="n">
+        <v>22.300399780273438</v>
+      </c>
+      <c r="R108" s="2" t="n">
+        <v>22.299999237060547</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>0.17737255990505219</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>0.13103894889354706</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>2.581397771835327</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>2.600161552429199</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>2.675680160522461</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>2.6540448665618896</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J109" s="2" t="n">
+        <v>47.170719146728516</v>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>-22.02081298828125</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>1023.0613403320312</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="N109" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O109" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P109" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q109" s="2" t="n">
+        <v>22.132787704467773</v>
+      </c>
+      <c r="R109" s="2" t="n">
+        <v>22.299999237060547</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 09:00:00</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>0.17904068529605865</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>0.13109053671360016</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>2.6191704273223877</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>2.6417675018310547</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>2.7257726192474365</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>2.726048231124878</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J110" s="2" t="n">
+        <v>47.25924301147461</v>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>-21.470983505249023</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>1022.4991455078125</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N110" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O110" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P110" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q110" s="2" t="n">
+        <v>22.399700164794922</v>
+      </c>
+      <c r="R110" s="2" t="n">
+        <v>22.367755889892578</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 10:00:00</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>0.2509287893772125</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>0.13114212453365326</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>2.6130735874176025</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>2.6377902030944824</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>2.7122795581817627</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>2.722278118133545</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>47.34911346435547</v>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>-20.92892074584961</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>1021.9369506835938</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N111" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O111" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P111" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q111" s="2" t="n">
+        <v>22.550113677978516</v>
+      </c>
+      <c r="R111" s="2" t="n">
+        <v>24.0617733001709</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 11:00:00</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>0.25841519236564636</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>0.13119371235370636</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>2.1455140113830566</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>0.1978391408920288</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>2.2707388401031494</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>2.23197340965271</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J112" s="2" t="n">
+        <v>47.436180114746094</v>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>-20.393667221069336</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>1021.374755859375</v>
+      </c>
+      <c r="M112" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N112" s="2" t="n">
+        <v>4.700000286102295</v>
+      </c>
+      <c r="O112" s="2" t="n">
+        <v>4.400000095367432</v>
+      </c>
+      <c r="P112" s="2" t="n">
+        <v>4.400000095367432</v>
+      </c>
+      <c r="Q112" s="2" t="n">
+        <v>18.3987979888916</v>
+      </c>
+      <c r="R112" s="2" t="n">
+        <v>24.808818817138672</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 12:00:00</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>0.17968633770942688</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>0.13124531507492065</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>2.6750924587249756</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>2.6768789291381836</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>2.752065658569336</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>2.735883951187134</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>47.51444625854492</v>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>-19.912370681762695</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>1020.8125610351562</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>9.100801467895508</v>
+      </c>
+      <c r="N113" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O113" s="2" t="n">
+        <v>9.600801467895508</v>
+      </c>
+      <c r="P113" s="2" t="n">
+        <v>9.40040111541748</v>
+      </c>
+      <c r="Q113" s="2" t="n">
+        <v>22.63288688659668</v>
+      </c>
+      <c r="R113" s="2" t="n">
+        <v>26.624067306518555</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 13:00:00</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>0.17910222709178925</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>0.13129690289497375</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>2.676839590072632</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>2.6869866847991943</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>2.759739398956299</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>2.748302698135376</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J114" s="2" t="n">
+        <v>47.60494613647461</v>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>-19.35428237915039</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>1020.2503662109375</v>
+      </c>
+      <c r="M114" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N114" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O114" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="P114" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q114" s="2" t="n">
+        <v>23.6497745513916</v>
+      </c>
+      <c r="R114" s="2" t="n">
+        <v>24.179895401000977</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 14:00:00</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>0.17844431102275848</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>0.13134849071502686</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>2.6755166053771973</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>2.6985509395599365</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>2.762568712234497</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>2.7641618251800537</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J115" s="2" t="n">
+        <v>47.69489669799805</v>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>-18.7982234954834</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>1019.1185302734375</v>
+      </c>
+      <c r="M115" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N115" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="O115" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P115" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q115" s="2" t="n">
+        <v>23.474899291992188</v>
+      </c>
+      <c r="R115" s="2" t="n">
+        <v>23.635175704956055</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 15:00:00</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>0.22621066868305206</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>0.13140007853507996</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>2.6825437545776367</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>2.7137062549591064</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>2.7742197513580322</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>2.773613929748535</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J116" s="2" t="n">
+        <v>47.78379821777344</v>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>-18.248912811279297</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>1017.9307250976562</v>
+      </c>
+      <c r="M116" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N116" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O116" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="P116" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q116" s="2" t="n">
+        <v>21.99880027770996</v>
+      </c>
+      <c r="R116" s="2" t="n">
+        <v>21.700000762939453</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 16:00:00</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>0.18001554906368256</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>0.13145166635513306</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>2.7014052867889404</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>2.682739019393921</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>2.7898082733154297</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>2.7855374813079834</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J117" s="2" t="n">
+        <v>47.87324142456055</v>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>-17.694787979125977</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>1016.742919921875</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N117" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="O117" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="P117" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="Q117" s="2" t="n">
+        <v>22.60040283203125</v>
+      </c>
+      <c r="R117" s="2" t="n">
+        <v>20.64958381652832</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 17:00:00</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>0.22383779287338257</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>0.13150325417518616</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>2.7526564598083496</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>2.7074389457702637</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>2.801562547683716</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>2.825191020965576</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J118" s="2" t="n">
+        <v>47.96199417114258</v>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>-17.144224166870117</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>1015.5551147460938</v>
+      </c>
+      <c r="M118" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N118" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O118" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="P118" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="Q118" s="2" t="n">
+        <v>22.540023803710938</v>
+      </c>
+      <c r="R118" s="2" t="n">
+        <v>19.846210479736328</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 18:00:00</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>0.235879048705101</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>0.13155484199523926</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>1.948590636253357</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>1.105447769165039</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>2.0110106468200684</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>2.0044443607330322</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J119" s="2" t="n">
+        <v>48.051124572753906</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>-16.60743522644043</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>1014.7839965820312</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="N119" s="2" t="n">
+        <v>5.200000286102295</v>
+      </c>
+      <c r="O119" s="2" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="P119" s="2" t="n">
+        <v>4.900000095367432</v>
+      </c>
+      <c r="Q119" s="2" t="n">
+        <v>18.60030174255371</v>
+      </c>
+      <c r="R119" s="2" t="n">
+        <v>18.243520736694336</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 19:00:00</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>0.1821085661649704</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>0.13160642981529236</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>2.6212189197540283</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>2.6257474422454834</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>2.6896674633026123</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>2.6950974464416504</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J120" s="2" t="n">
+        <v>48.135154724121094</v>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>-16.077016830444336</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>1013.9276123046875</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N120" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O120" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P120" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q120" s="2" t="n">
+        <v>22.2000675201416</v>
+      </c>
+      <c r="R120" s="2" t="n">
+        <v>18.091554641723633</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 20:00:00</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>0.214331716299057</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>0.13165801763534546</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>2.617623805999756</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>2.6275129318237305</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>2.705169916152954</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>2.705395460128784</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J121" s="2" t="n">
+        <v>48.220924377441406</v>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>-15.530720710754395</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>1012.8963012695312</v>
+      </c>
+      <c r="M121" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N121" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O121" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P121" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="Q121" s="2" t="n">
+        <v>22.99989891052246</v>
+      </c>
+      <c r="R121" s="2" t="n">
+        <v>17.899999618530273</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 21:00:00</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>0.230069100856781</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>0.13170960545539856</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>2.6040093898773193</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>2.618621349334717</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>2.6917386054992676</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>2.6967363357543945</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J122" s="2" t="n">
+        <v>48.308773040771484</v>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>-14.98203182220459</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>1011.864990234375</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N122" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O122" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P122" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q122" s="2" t="n">
+        <v>22.16017723083496</v>
+      </c>
+      <c r="R122" s="2" t="n">
+        <v>17.557580947875977</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 22:00:00</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>0.22276633977890015</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>0.13176119327545166</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>2.609267234802246</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>2.6280956268310547</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>2.7019221782684326</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>2.7035937309265137</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J123" s="2" t="n">
+        <v>48.397891998291016</v>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>-14.425210952758789</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>1010.8336791992188</v>
+      </c>
+      <c r="M123" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N123" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O123" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P123" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q123" s="2" t="n">
+        <v>21.800600051879883</v>
+      </c>
+      <c r="R123" s="2" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-02 23:00:00</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>0.18068663775920868</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>0.13181278109550476</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>2.582828998565674</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>2.6019437313079834</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>2.681051015853882</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>2.6771962642669678</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J124" s="2" t="n">
+        <v>48.486671447753906</v>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>-13.869545936584473</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>1009.8023071289062</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N124" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O124" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P124" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="Q124" s="2" t="n">
+        <v>23.499799728393555</v>
+      </c>
+      <c r="R124" s="2" t="n">
+        <v>17.4841365814209</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>0.180205836892128</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>0.13186436891555786</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>2.5698764324188232</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>2.5885143280029297</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>2.6625449657440186</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>2.65993595123291</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J125" s="2" t="n">
+        <v>48.57395935058594</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>-13.318992614746094</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>1008.77099609375</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N125" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P125" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q125" s="2" t="n">
+        <v>22.050037384033203</v>
+      </c>
+      <c r="R125" s="2" t="n">
+        <v>17.147916793823242</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 01:00:00</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>0.17999111115932465</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>0.13191595673561096</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>2.595900297164917</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>2.6157591342926025</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>2.685129165649414</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>2.6840293407440186</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J126" s="2" t="n">
+        <v>48.66228103637695</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>-12.764768600463867</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>1007.7396850585938</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N126" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O126" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P126" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q126" s="2" t="n">
+        <v>22.433691024780273</v>
+      </c>
+      <c r="R126" s="2" t="n">
+        <v>18.798439025878906</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 02:00:00</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>0.180064395070076</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>0.13196754455566406</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>2.578622817993164</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>2.5901999473571777</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>2.6577982902526855</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>2.6614365577697754</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J127" s="2" t="n">
+        <v>48.75105667114258</v>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>-12.204557418823242</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>1006.7083740234375</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N127" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P127" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q127" s="2" t="n">
+        <v>22.766576766967773</v>
+      </c>
+      <c r="R127" s="2" t="n">
+        <v>19.429079055786133</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 03:00:00</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>0.18013767898082733</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>0.13201913237571716</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>2.5137295722961426</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>2.5186479091644287</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>2.5991618633270264</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>2.596895933151245</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J128" s="2" t="n">
+        <v>48.841285705566406</v>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>-11.635393142700195</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>1005.6770629882812</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N128" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P128" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="Q128" s="2" t="n">
+        <v>23.399497985839844</v>
+      </c>
+      <c r="R128" s="2" t="n">
+        <v>18.113332748413086</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 04:00:00</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>0.22688499093055725</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>0.13207072019577026</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>2.574275016784668</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>2.572087287902832</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>2.659125328063965</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>2.6554102897644043</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J129" s="2" t="n">
+        <v>48.930274963378906</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>-11.072778701782227</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>1004.645751953125</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N129" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O129" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P129" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q129" s="2" t="n">
+        <v>23.09980010986328</v>
+      </c>
+      <c r="R129" s="2" t="n">
+        <v>18.15595817565918</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 05:00:00</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>0.17892877757549286</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>0.13212230801582336</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>2.5697426795959473</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>2.5718438625335693</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>2.6522037982940674</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>2.6491940021514893</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J130" s="2" t="n">
+        <v>49.01813888549805</v>
+      </c>
+      <c r="K130" s="2" t="n">
+        <v>-10.51431941986084</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N130" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O130" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P130" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q130" s="2" t="n">
+        <v>22.901601791381836</v>
+      </c>
+      <c r="R130" s="2" t="n">
+        <v>17.48630142211914</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 06:00:00</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>0.2163855880498886</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>0.13217389583587646</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>2.5939483642578125</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>2.5914793014526367</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>2.669468641281128</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>2.677536964416504</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="2" t="n">
+        <v>49.10612869262695</v>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>-9.956381797790527</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N131" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O131" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P131" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q131" s="2" t="n">
+        <v>22.73349952697754</v>
+      </c>
+      <c r="R131" s="2" t="n">
+        <v>17.243541717529297</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 07:00:00</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>0.24671508371829987</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>0.13222548365592957</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>2.676429271697998</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>2.646606206893921</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>2.749805450439453</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J132" s="2" t="n">
+        <v>49.18800354003906</v>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>-9.43564510345459</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N132" s="2" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="O132" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P132" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q132" s="2" t="n">
+        <v>19.600000381469727</v>
+      </c>
+      <c r="R132" s="2" t="n">
+        <v>17.922588348388672</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>0.5856242179870605</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>0.13227707147598267</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>2.433781623840332</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>2.5301623344421387</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>2.5566813945770264</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J133" s="2" t="n">
+        <v>49.2677001953125</v>
+      </c>
+      <c r="K133" s="2" t="n">
+        <v>-8.929079055786133</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="M133" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="N133" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O133" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P133" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="Q133" s="2" t="n">
+        <v>19.698801040649414</v>
+      </c>
+      <c r="R133" s="2" t="n">
+        <v>17.39187240600586</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 09:00:00</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>0.4999133348464966</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>0.13232867419719696</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>2.433002471923828</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>2.519190549850464</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>2.5498807430267334</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J134" s="2" t="n">
+        <v>49.34513473510742</v>
+      </c>
+      <c r="K134" s="2" t="n">
+        <v>-8.4336519241333</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="N134" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O134" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="P134" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="Q134" s="2" t="n">
+        <v>19.307676315307617</v>
+      </c>
+      <c r="R134" s="2" t="n">
+        <v>18.961252212524414</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 10:00:00</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>0.436614990234375</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>0.13238026201725006</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>2.4539709091186523</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>2.520512342453003</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>2.5416619777679443</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J135" s="2" t="n">
+        <v>49.421939849853516</v>
+      </c>
+      <c r="K135" s="2" t="n">
+        <v>-7.943028450012207</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="M135" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="N135" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="O135" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="P135" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="Q135" s="2" t="n">
+        <v>19.400251388549805</v>
+      </c>
+      <c r="R135" s="2" t="n">
+        <v>19.55731964111328</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 11:00:00</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>0.4147508442401886</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>0.13243184983730316</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>2.4399988651275635</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>2.514378786087036</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>2.5416133403778076</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J136" s="2" t="n">
+        <v>49.49837112426758</v>
+      </c>
+      <c r="K136" s="2" t="n">
+        <v>-7.4548540115356445</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="M136" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="N136" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="O136" s="2" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="P136" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q136" s="2" t="n">
+        <v>19.32002830505371</v>
+      </c>
+      <c r="R136" s="2" t="n">
+        <v>20.870210647583008</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 12:00:00</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>0.5328236818313599</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>0.13248343765735626</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>2.441218852996826</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>2.5178256034851074</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>2.5422093868255615</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J137" s="2" t="n">
+        <v>49.57356643676758</v>
+      </c>
+      <c r="K137" s="2" t="n">
+        <v>-6.971933364868164</v>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="N137" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="O137" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P137" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q137" s="2" t="n">
+        <v>19.701250076293945</v>
+      </c>
+      <c r="R137" s="2" t="n">
+        <v>22.307987213134766</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 13:00:00</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>0.3718469440937042</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>0.13253502547740936</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>2.484576463699341</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>2.557549476623535</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>2.583181619644165</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J138" s="2" t="n">
+        <v>49.634456634521484</v>
+      </c>
+      <c r="K138" s="2" t="n">
+        <v>-6.4945173263549805</v>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="M138" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="N138" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="O138" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P138" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="Q138" s="2" t="n">
+        <v>19.40060043334961</v>
+      </c>
+      <c r="R138" s="2" t="n">
+        <v>22.792551040649414</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 14:00:00</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>0.4274851381778717</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>0.13258661329746246</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>2.471137523651123</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>2.556203603744507</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>2.572929859161377</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J139" s="2" t="n">
+        <v>49.64802169799805</v>
+      </c>
+      <c r="K139" s="2" t="n">
+        <v>-6.000334739685059</v>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>1004.5922241210938</v>
+      </c>
+      <c r="M139" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="N139" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O139" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="P139" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="Q139" s="2" t="n">
+        <v>19.30060386657715</v>
+      </c>
+      <c r="R139" s="2" t="n">
+        <v>22.252336502075195</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 15:00:00</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>0.15654154121875763</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>0.13263820111751556</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>2.525240182876587</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>2.6332123279571533</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>2.608700752258301</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J140" s="2" t="n">
+        <v>49.67799377441406</v>
+      </c>
+      <c r="K140" s="2" t="n">
+        <v>-5.509808540344238</v>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>1005.1967163085938</v>
+      </c>
+      <c r="M140" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="N140" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="O140" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P140" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q140" s="2" t="n">
+        <v>20.64995765686035</v>
+      </c>
+      <c r="R140" s="2" t="n">
+        <v>22.629501342773438</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 16:00:00</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>0.2809157371520996</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>0.13268978893756866</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>2.3352460861206055</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>2.4317545890808105</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>2.4719135761260986</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J141" s="2" t="n">
+        <v>49.68008804321289</v>
+      </c>
+      <c r="K141" s="2" t="n">
+        <v>-5.069230556488037</v>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>1005.8011474609375</v>
+      </c>
+      <c r="M141" s="2" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="N141" s="2" t="n">
+        <v>5.300000190734863</v>
+      </c>
+      <c r="O141" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="P141" s="2" t="n">
+        <v>5.300000190734863</v>
+      </c>
+      <c r="Q141" s="2" t="n">
+        <v>20.100000381469727</v>
+      </c>
+      <c r="R141" s="2" t="n">
+        <v>21.299999237060547</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 17:00:00</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>0.1799774467945099</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>0.13274137675762177</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>2.318565845489502</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>2.2595255374908447</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>2.4180784225463867</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J142" s="2" t="n">
+        <v>49.75816345214844</v>
+      </c>
+      <c r="K142" s="2" t="n">
+        <v>-4.619317054748535</v>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>1006.4056396484375</v>
+      </c>
+      <c r="M142" s="2" t="n">
+        <v>4.900000095367432</v>
+      </c>
+      <c r="N142" s="2" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="O142" s="2" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="P142" s="2" t="n">
+        <v>4.900000095367432</v>
+      </c>
+      <c r="Q142" s="2" t="n">
+        <v>20.198200225830078</v>
+      </c>
+      <c r="R142" s="2" t="n">
+        <v>21.608190536499023</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 18:00:00</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>0.25269031524658203</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>0.13279296457767487</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>2.3158681392669678</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>2.241579532623291</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>2.4123785495758057</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J143" s="2" t="n">
+        <v>49.852760314941406</v>
+      </c>
+      <c r="K143" s="2" t="n">
+        <v>-4.160183429718018</v>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>1007.0101318359375</v>
+      </c>
+      <c r="M143" s="2" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="N143" s="2" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="O143" s="2" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="P143" s="2" t="n">
+        <v>4.700000286102295</v>
+      </c>
+      <c r="Q143" s="2" t="n">
+        <v>20.150150299072266</v>
+      </c>
+      <c r="R143" s="2" t="n">
+        <v>22.029802322387695</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 19:00:00</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>0.177716463804245</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>0.13284455239772797</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>2.320967197418213</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>2.242762327194214</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>2.4237253665924072</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J144" s="2" t="n">
+        <v>49.944801330566406</v>
+      </c>
+      <c r="K144" s="2" t="n">
+        <v>-3.7031397819519043</v>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>1007.6145629882812</v>
+      </c>
+      <c r="M144" s="2" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="N144" s="2" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="O144" s="2" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="P144" s="2" t="n">
+        <v>4.900000095367432</v>
+      </c>
+      <c r="Q144" s="2" t="n">
+        <v>18.966733932495117</v>
+      </c>
+      <c r="R144" s="2" t="n">
+        <v>22.470712661743164</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 20:00:00</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>0.2598001956939697</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>0.13289614021778107</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>2.3004183769226074</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>2.2153990268707275</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>2.3963871002197266</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J145" s="2" t="n">
+        <v>50.06889724731445</v>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>-3.273131847381592</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>1008.2190551757812</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="N145" s="2" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="O145" s="2" t="n">
+        <v>4.700000286102295</v>
+      </c>
+      <c r="P145" s="2" t="n">
+        <v>4.700000286102295</v>
+      </c>
+      <c r="Q145" s="2" t="n">
+        <v>17.601200103759766</v>
+      </c>
+      <c r="R145" s="2" t="n">
+        <v>22.613134384155273</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 21:00:00</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>0.2860562205314636</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>0.13294772803783417</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>2.3217811584472656</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>2.2312822341918945</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>2.4113736152648926</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J146" s="2" t="n">
+        <v>50.23261642456055</v>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>-2.869286060333252</v>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>1008.8235473632812</v>
+      </c>
+      <c r="M146" s="2" t="n">
+        <v>5.200000286102295</v>
+      </c>
+      <c r="N146" s="2" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="O146" s="2" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="P146" s="2" t="n">
+        <v>4.900000095367432</v>
+      </c>
+      <c r="Q146" s="2" t="n">
+        <v>19.399999618530273</v>
+      </c>
+      <c r="R146" s="2" t="n">
+        <v>22.75969123840332</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 22:00:00</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>0.007824750617146492</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>0.13299931585788727</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>2.3183536529541016</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>2.2306923866271973</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>2.412921905517578</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J147" s="2" t="n">
+        <v>50.247802734375</v>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>-2.3782799243927</v>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>1009.427978515625</v>
+      </c>
+      <c r="M147" s="2" t="n">
+        <v>5.200000286102295</v>
+      </c>
+      <c r="N147" s="2" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="O147" s="2" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="P147" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q147" s="2" t="n">
+        <v>19.049850463867188</v>
+      </c>
+      <c r="R147" s="2" t="n">
+        <v>23.30605125427246</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-03 23:00:00</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>0.3477526605129242</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>0.13305090367794037</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>1.5348930358886719</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>1.5286918878555298</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>1.536128282546997</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J148" s="2" t="n">
+        <v>50.32622146606445</v>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>-1.9219528436660767</v>
+      </c>
+      <c r="L148" s="2" t="n">
+        <v>1010.032470703125</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N148" s="2" t="n">
+        <v>2.6000001430511475</v>
+      </c>
+      <c r="O148" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P148" s="2" t="n">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="Q148" s="2" t="n">
+        <v>15.70035171508789</v>
+      </c>
+      <c r="R148" s="2" t="n">
+        <v>23.338132858276367</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>0.17717130482196808</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>0.13310249149799347</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>2.1422622203826904</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>2.166666030883789</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>2.1565260887145996</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>50.424015045166016</v>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>-1.4515968561172485</v>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>1010.7556762695312</v>
+      </c>
+      <c r="M149" s="2" t="n">
+        <v>5.200000286102295</v>
+      </c>
+      <c r="N149" s="2" t="n">
+        <v>5.300000190734863</v>
+      </c>
+      <c r="O149" s="2" t="n">
+        <v>5.099596977233887</v>
+      </c>
+      <c r="P149" s="2" t="n">
+        <v>4.999798774719238</v>
+      </c>
+      <c r="Q149" s="2" t="n">
+        <v>18.300201416015625</v>
+      </c>
+      <c r="R149" s="2" t="n">
+        <v>23.71873664855957</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-04 01:00:00</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>0.17724010348320007</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>0.13315407931804657</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>1.4761602878570557</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>1.5494757890701294</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J150" s="2" t="n">
+        <v>50.54673767089844</v>
+      </c>
+      <c r="K150" s="2" t="n">
+        <v>-0.9945192337036133</v>
+      </c>
+      <c r="L150" s="2" t="n">
+        <v>1011.0775756835938</v>
+      </c>
+      <c r="M150" s="2" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="N150" s="2" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="O150" s="2" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="P150" s="2" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="Q150" s="2" t="n">
+        <v>11.600000381469727</v>
+      </c>
+      <c r="R150" s="2" t="n">
+        <v>23.59210777282715</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-04 02:00:00</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>0.008626624941825867</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>0.13320566713809967</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>0.3153880536556244</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>1.471452236175537</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>1.5383681058883667</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>3.049800157546997</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>50.71940994262695</v>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>-1.0078192949295044</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>1011.3693237304688</v>
+      </c>
+      <c r="M151" s="2" t="n">
+        <v>2.799999952316284</v>
+      </c>
+      <c r="N151" s="2" t="n">
+        <v>2.799999952316284</v>
+      </c>
+      <c r="O151" s="2" t="n">
+        <v>2.9000000953674316</v>
+      </c>
+      <c r="P151" s="2" t="n">
+        <v>2.799999952316284</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>15.86016845703125</v>
+      </c>
+      <c r="R151" s="2" t="n">
+        <v>23.4559383392334</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-04 03:00:00</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>0.08610666543245316</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>0.13325725495815277</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>1.1569498777389526</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>1.1669236421585083</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>2.871299982070923</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J152" s="2" t="n">
+        <v>50.816261291503906</v>
+      </c>
+      <c r="K152" s="2" t="n">
+        <v>-1.2960145473480225</v>
+      </c>
+      <c r="L152" s="2" t="n">
+        <v>1011.6610717773438</v>
+      </c>
+      <c r="M152" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N152" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O152" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P152" s="2" t="n">
+        <v>2.1000001430511475</v>
+      </c>
+      <c r="Q152" s="2" t="n">
+        <v>11.533645629882812</v>
+      </c>
+      <c r="R152" s="2" t="n">
+        <v>23.200000762939453</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-04 04:00:00</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>0.16358670592308044</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>0.13330884277820587</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>0.7253316640853882</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>0.7456459999084473</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>2.142000198364258</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J153" s="2" t="n">
+        <v>50.90428161621094</v>
+      </c>
+      <c r="K153" s="2" t="n">
+        <v>-1.4309691190719604</v>
+      </c>
+      <c r="L153" s="2" t="n">
+        <v>1011.9528198242188</v>
+      </c>
+      <c r="M153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O153" s="2" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="P153" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q153" s="2" t="n">
+        <v>0.3685159981250763</v>
+      </c>
+      <c r="R153" s="2" t="n">
+        <v>23.200000762939453</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
           <t>2022-09-04 05:00:00</t>
         </is>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B154" s="2" t="n">
         <v>0.4339626133441925</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C154" s="2" t="n">
         <v>0.13336043059825897</v>
       </c>
-      <c r="D78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G78" s="2" t="n">
+      <c r="D154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G154" s="2" t="n">
         <v>1.6826502084732056</v>
       </c>
-      <c r="H78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J78" s="2" t="n">
+      <c r="H154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J154" s="2" t="n">
         <v>50.90513610839844</v>
       </c>
-      <c r="K78" s="2" t="n">
+      <c r="K154" s="2" t="n">
         <v>-1.431027889251709</v>
       </c>
-      <c r="L78" s="2" t="n">
+      <c r="L154" s="2" t="n">
         <v>1012.2445678710938</v>
       </c>
-      <c r="M78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q78" s="2" t="n">
+      <c r="M154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q154" s="2" t="n">
         <v>0.33423930406570435</v>
       </c>
-      <c r="R78" s="2" t="n">
+      <c r="R154" s="2" t="n">
         <v>23.200000762939453</v>
       </c>
     </row>
